--- a/group_desc/data_GROUPS_protocols_added.xlsx
+++ b/group_desc/data_GROUPS_protocols_added.xlsx
@@ -3688,7 +3688,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A391" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AS407" sqref="AS407"/>
+      <selection pane="bottomLeft" activeCell="AL405" sqref="AL405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -57765,10 +57765,10 @@
         <v>1</v>
       </c>
       <c r="AM405" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN405" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO405" s="27">
         <v>1</v>
@@ -57787,7 +57787,7 @@
       </c>
       <c r="AT405" s="71">
         <f t="shared" si="61"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="406" spans="1:46" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -57904,10 +57904,10 @@
         <v>1</v>
       </c>
       <c r="AM406" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN406" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO406" s="27">
         <v>1</v>
@@ -57926,7 +57926,7 @@
       </c>
       <c r="AT406" s="71">
         <f t="shared" si="61"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="407" spans="1:46" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -58046,7 +58046,7 @@
         <v>1</v>
       </c>
       <c r="AN407" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO407" s="27">
         <v>1</v>
@@ -58065,7 +58065,7 @@
       </c>
       <c r="AT407" s="71">
         <f t="shared" si="61"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="408" spans="1:46" s="95" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/group_desc/data_GROUPS_protocols_added.xlsx
+++ b/group_desc/data_GROUPS_protocols_added.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showObjects="none" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krl0022\Documents\GitHub\SCOAR\group_desc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u6015231\Documents\GitHub\SCOAR\group_desc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3165" uniqueCount="943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3166" uniqueCount="944">
   <si>
     <t>author</t>
   </si>
@@ -2934,6 +2934,9 @@
   </si>
   <si>
     <t>Ref. 21 and 22</t>
+  </si>
+  <si>
+    <t>PEDro_score</t>
   </si>
 </sst>
 </file>
@@ -3684,11 +3687,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT490"/>
+  <dimension ref="A1:AU490"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A391" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AL405" sqref="AL405"/>
+      <pane ySplit="1" topLeftCell="A457" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AU1" sqref="AU1:AU1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3719,10 +3722,11 @@
     <col min="33" max="33" width="8.7109375" style="3" customWidth="1"/>
     <col min="34" max="45" width="12" style="3"/>
     <col min="46" max="46" width="12" style="30"/>
-    <col min="47" max="16384" width="12" style="3"/>
+    <col min="47" max="47" width="12" bestFit="1" customWidth="1"/>
+    <col min="48" max="16384" width="12" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>537</v>
       </c>
@@ -3861,8 +3865,11 @@
       <c r="AT1" s="29" t="s">
         <v>656</v>
       </c>
+      <c r="AU1" t="s">
+        <v>943</v>
+      </c>
     </row>
-    <row r="2" spans="1:46" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -3991,8 +3998,11 @@
         <f>SUM(AH2:AS2)</f>
         <v>5</v>
       </c>
+      <c r="AU2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:46" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <f t="shared" ref="A3:A34" si="1">IF(B3=B2,A2,A2+1)</f>
         <v>1</v>
@@ -4122,8 +4132,11 @@
         <f t="shared" ref="AT3:AT66" si="7">SUM(AH3:AS3)</f>
         <v>11</v>
       </c>
+      <c r="AU3">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:46" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -4251,8 +4264,11 @@
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
+      <c r="AU4">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:46" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -4390,8 +4406,11 @@
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
+      <c r="AU5">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:46" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -4526,8 +4545,11 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
+      <c r="AU6">
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="1:46" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -4665,8 +4687,11 @@
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
+      <c r="AU7">
+        <v>8</v>
+      </c>
     </row>
-    <row r="8" spans="1:46" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -4804,8 +4829,11 @@
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
+      <c r="AU8">
+        <v>8</v>
+      </c>
     </row>
-    <row r="9" spans="1:46" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -4925,8 +4953,9 @@
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
+      <c r="AU9"/>
     </row>
-    <row r="10" spans="1:46" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -5046,8 +5075,9 @@
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
+      <c r="AU10"/>
     </row>
-    <row r="11" spans="1:46" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -5185,8 +5215,11 @@
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
+      <c r="AU11">
+        <v>8</v>
+      </c>
     </row>
-    <row r="12" spans="1:46" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -5324,8 +5357,11 @@
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
+      <c r="AU12">
+        <v>8</v>
+      </c>
     </row>
-    <row r="13" spans="1:46" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -5463,8 +5499,11 @@
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
+      <c r="AU13">
+        <v>7</v>
+      </c>
     </row>
-    <row r="14" spans="1:46" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -5602,8 +5641,11 @@
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
+      <c r="AU14">
+        <v>7</v>
+      </c>
     </row>
-    <row r="15" spans="1:46" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -5733,8 +5775,11 @@
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
+      <c r="AU15">
+        <v>4</v>
+      </c>
     </row>
-    <row r="16" spans="1:46" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -5864,8 +5909,11 @@
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
+      <c r="AU16">
+        <v>4</v>
+      </c>
     </row>
-    <row r="17" spans="1:46" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:47" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -6005,8 +6053,11 @@
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
+      <c r="AU17">
+        <v>8</v>
+      </c>
     </row>
-    <row r="18" spans="1:46" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -6146,8 +6197,11 @@
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
+      <c r="AU18">
+        <v>8</v>
+      </c>
     </row>
-    <row r="19" spans="1:46" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:47" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -6285,8 +6339,11 @@
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
+      <c r="AU19">
+        <v>6</v>
+      </c>
     </row>
-    <row r="20" spans="1:46" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:47" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -6424,8 +6481,11 @@
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
+      <c r="AU20">
+        <v>6</v>
+      </c>
     </row>
-    <row r="21" spans="1:46" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -6560,8 +6620,9 @@
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
+      <c r="AU21"/>
     </row>
-    <row r="22" spans="1:46" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:47" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -6696,8 +6757,9 @@
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
+      <c r="AU22"/>
     </row>
-    <row r="23" spans="1:46" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:47" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="66">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -6834,8 +6896,11 @@
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
+      <c r="AU23">
+        <v>7</v>
+      </c>
     </row>
-    <row r="24" spans="1:46" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:47" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="66">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -6972,8 +7037,11 @@
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
+      <c r="AU24">
+        <v>7</v>
+      </c>
     </row>
-    <row r="25" spans="1:46" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:47" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -7095,8 +7163,11 @@
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
+      <c r="AU25">
+        <v>5</v>
+      </c>
     </row>
-    <row r="26" spans="1:46" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:47" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -7221,8 +7292,11 @@
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
+      <c r="AU26">
+        <v>5</v>
+      </c>
     </row>
-    <row r="27" spans="1:46" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:47" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -7359,8 +7433,11 @@
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
+      <c r="AU27">
+        <v>4</v>
+      </c>
     </row>
-    <row r="28" spans="1:46" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:47" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -7495,8 +7572,11 @@
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
+      <c r="AU28">
+        <v>4</v>
+      </c>
     </row>
-    <row r="29" spans="1:46" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:47" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -7631,8 +7711,11 @@
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
+      <c r="AU29">
+        <v>3</v>
+      </c>
     </row>
-    <row r="30" spans="1:46" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:47" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -7767,8 +7850,11 @@
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
+      <c r="AU30">
+        <v>3</v>
+      </c>
     </row>
-    <row r="31" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -7897,8 +7983,11 @@
         <f t="shared" si="7"/>
         <v>11</v>
       </c>
+      <c r="AU31">
+        <v>6</v>
+      </c>
     </row>
-    <row r="32" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -8027,8 +8116,11 @@
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
+      <c r="AU32">
+        <v>6</v>
+      </c>
     </row>
-    <row r="33" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -8157,8 +8249,11 @@
         <f t="shared" si="7"/>
         <v>11</v>
       </c>
+      <c r="AU33">
+        <v>6</v>
+      </c>
     </row>
-    <row r="34" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -8281,8 +8376,11 @@
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
+      <c r="AU34">
+        <v>6</v>
+      </c>
     </row>
-    <row r="35" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <f>IF(B35=B34,A34,A34+1)</f>
         <v>16</v>
@@ -8405,8 +8503,11 @@
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
+      <c r="AU35">
+        <v>6</v>
+      </c>
     </row>
-    <row r="36" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <f>IF(B36=B35,A35,A35+1)</f>
         <v>17</v>
@@ -8538,8 +8639,11 @@
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
+      <c r="AU36">
+        <v>3</v>
+      </c>
     </row>
-    <row r="37" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <f t="shared" ref="A37:A66" si="9">IF(B37=B36,A36,A36+1)</f>
         <v>17</v>
@@ -8668,8 +8772,11 @@
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
+      <c r="AU37">
+        <v>3</v>
+      </c>
     </row>
-    <row r="38" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <f t="shared" si="9"/>
         <v>17</v>
@@ -8798,8 +8905,11 @@
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
+      <c r="AU38">
+        <v>3</v>
+      </c>
     </row>
-    <row r="39" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <f t="shared" si="9"/>
         <v>18</v>
@@ -8925,8 +9035,11 @@
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
+      <c r="AU39">
+        <v>7</v>
+      </c>
     </row>
-    <row r="40" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <f t="shared" si="9"/>
         <v>18</v>
@@ -9052,8 +9165,11 @@
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
+      <c r="AU40">
+        <v>7</v>
+      </c>
     </row>
-    <row r="41" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <f t="shared" si="9"/>
         <v>19</v>
@@ -9188,8 +9304,11 @@
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
+      <c r="AU41">
+        <v>7</v>
+      </c>
     </row>
-    <row r="42" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <f t="shared" si="9"/>
         <v>19</v>
@@ -9327,8 +9446,11 @@
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
+      <c r="AU42">
+        <v>7</v>
+      </c>
     </row>
-    <row r="43" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <f t="shared" si="9"/>
         <v>20</v>
@@ -9460,8 +9582,11 @@
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
+      <c r="AU43">
+        <v>7</v>
+      </c>
     </row>
-    <row r="44" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <f t="shared" si="9"/>
         <v>20</v>
@@ -9593,8 +9718,11 @@
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
+      <c r="AU44">
+        <v>7</v>
+      </c>
     </row>
-    <row r="45" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <f t="shared" si="9"/>
         <v>21</v>
@@ -9729,8 +9857,11 @@
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
+      <c r="AU45">
+        <v>6</v>
+      </c>
     </row>
-    <row r="46" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <f t="shared" si="9"/>
         <v>21</v>
@@ -9865,8 +9996,11 @@
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
+      <c r="AU46">
+        <v>6</v>
+      </c>
     </row>
-    <row r="47" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <f t="shared" si="9"/>
         <v>21</v>
@@ -10001,8 +10135,11 @@
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
+      <c r="AU47">
+        <v>6</v>
+      </c>
     </row>
-    <row r="48" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <f t="shared" si="9"/>
         <v>22</v>
@@ -10140,8 +10277,11 @@
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
+      <c r="AU48">
+        <v>8</v>
+      </c>
     </row>
-    <row r="49" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <f t="shared" si="9"/>
         <v>22</v>
@@ -10279,8 +10419,11 @@
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
+      <c r="AU49">
+        <v>8</v>
+      </c>
     </row>
-    <row r="50" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <f t="shared" si="9"/>
         <v>22</v>
@@ -10418,8 +10561,11 @@
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
+      <c r="AU50">
+        <v>8</v>
+      </c>
     </row>
-    <row r="51" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <f t="shared" si="9"/>
         <v>23</v>
@@ -10554,8 +10700,11 @@
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
+      <c r="AU51">
+        <v>8</v>
+      </c>
     </row>
-    <row r="52" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
         <f t="shared" si="9"/>
         <v>23</v>
@@ -10684,8 +10833,11 @@
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
+      <c r="AU52">
+        <v>8</v>
+      </c>
     </row>
-    <row r="53" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <f t="shared" si="9"/>
         <v>24</v>
@@ -10823,8 +10975,11 @@
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
+      <c r="AU53">
+        <v>5</v>
+      </c>
     </row>
-    <row r="54" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <f t="shared" si="9"/>
         <v>24</v>
@@ -10950,8 +11105,11 @@
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
+      <c r="AU54">
+        <v>5</v>
+      </c>
     </row>
-    <row r="55" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
         <f t="shared" si="9"/>
         <v>25</v>
@@ -11089,8 +11247,11 @@
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
+      <c r="AU55">
+        <v>8</v>
+      </c>
     </row>
-    <row r="56" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
         <f t="shared" si="9"/>
         <v>25</v>
@@ -11213,8 +11374,11 @@
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
+      <c r="AU56">
+        <v>8</v>
+      </c>
     </row>
-    <row r="57" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
         <f t="shared" si="9"/>
         <v>26</v>
@@ -11334,8 +11498,11 @@
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
+      <c r="AU57">
+        <v>5</v>
+      </c>
     </row>
-    <row r="58" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="11">
         <f t="shared" si="9"/>
         <v>26</v>
@@ -11455,8 +11622,11 @@
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
+      <c r="AU58">
+        <v>5</v>
+      </c>
     </row>
-    <row r="59" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
         <f t="shared" si="9"/>
         <v>27</v>
@@ -11577,7 +11747,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
         <f t="shared" si="9"/>
         <v>27</v>
@@ -11698,7 +11868,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <f t="shared" si="9"/>
         <v>28</v>
@@ -11827,8 +11997,11 @@
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
+      <c r="AU61">
+        <v>6</v>
+      </c>
     </row>
-    <row r="62" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
         <f t="shared" si="9"/>
         <v>28</v>
@@ -11957,8 +12130,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
+      <c r="AU62">
+        <v>6</v>
+      </c>
     </row>
-    <row r="63" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="66">
         <f t="shared" si="9"/>
         <v>29</v>
@@ -12090,8 +12266,11 @@
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
+      <c r="AU63">
+        <v>5</v>
+      </c>
     </row>
-    <row r="64" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="66">
         <f t="shared" si="9"/>
         <v>29</v>
@@ -12226,8 +12405,11 @@
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
+      <c r="AU64">
+        <v>5</v>
+      </c>
     </row>
-    <row r="65" spans="1:46" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:47" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="24">
         <f t="shared" si="9"/>
         <v>30</v>
@@ -12354,8 +12536,11 @@
         <f t="shared" si="7"/>
         <v>11</v>
       </c>
+      <c r="AU65">
+        <v>8</v>
+      </c>
     </row>
-    <row r="66" spans="1:46" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:47" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="24">
         <f t="shared" si="9"/>
         <v>30</v>
@@ -12482,8 +12667,11 @@
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
+      <c r="AU66">
+        <v>8</v>
+      </c>
     </row>
-    <row r="67" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11">
         <f>IF(B67=B66,A66,A66+1)</f>
         <v>31</v>
@@ -12624,8 +12812,11 @@
         <f t="shared" ref="AT67:AT130" si="17">SUM(AH67:AS67)</f>
         <v>7</v>
       </c>
+      <c r="AU67">
+        <v>6</v>
+      </c>
     </row>
-    <row r="68" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
         <f>IF(B68=B67,A67,A67+1)</f>
         <v>31</v>
@@ -12766,8 +12957,11 @@
         <f t="shared" si="17"/>
         <v>6</v>
       </c>
+      <c r="AU68">
+        <v>6</v>
+      </c>
     </row>
-    <row r="69" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="11">
         <f>IF(B69=B68,A68,A68+1)</f>
         <v>32</v>
@@ -12899,8 +13093,11 @@
         <f t="shared" si="17"/>
         <v>4</v>
       </c>
+      <c r="AU69">
+        <v>7</v>
+      </c>
     </row>
-    <row r="70" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
         <f t="shared" ref="A70:A133" si="18">IF(B70=B69,A69,A69+1)</f>
         <v>32</v>
@@ -13036,8 +13233,11 @@
         <f t="shared" si="17"/>
         <v>5</v>
       </c>
+      <c r="AU70">
+        <v>7</v>
+      </c>
     </row>
-    <row r="71" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11">
         <f t="shared" si="18"/>
         <v>33</v>
@@ -13173,7 +13373,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11">
         <f t="shared" si="18"/>
         <v>33</v>
@@ -13309,7 +13509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="11">
         <f t="shared" si="18"/>
         <v>34</v>
@@ -13426,8 +13626,11 @@
         <f t="shared" si="17"/>
         <v>3</v>
       </c>
+      <c r="AU73">
+        <v>7</v>
+      </c>
     </row>
-    <row r="74" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11">
         <f t="shared" si="18"/>
         <v>34</v>
@@ -13547,8 +13750,11 @@
         <f t="shared" si="17"/>
         <v>7</v>
       </c>
+      <c r="AU74">
+        <v>7</v>
+      </c>
     </row>
-    <row r="75" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="66">
         <f t="shared" si="18"/>
         <v>35</v>
@@ -13686,8 +13892,11 @@
         <f t="shared" si="17"/>
         <v>9</v>
       </c>
+      <c r="AU75">
+        <v>8</v>
+      </c>
     </row>
-    <row r="76" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="66">
         <f t="shared" si="18"/>
         <v>35</v>
@@ -13825,8 +14034,11 @@
         <f t="shared" si="17"/>
         <v>9</v>
       </c>
+      <c r="AU76">
+        <v>8</v>
+      </c>
     </row>
-    <row r="77" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="66">
         <f t="shared" si="18"/>
         <v>35</v>
@@ -13964,8 +14176,11 @@
         <f t="shared" si="17"/>
         <v>9</v>
       </c>
+      <c r="AU77">
+        <v>8</v>
+      </c>
     </row>
-    <row r="78" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11">
         <f t="shared" si="18"/>
         <v>36</v>
@@ -14103,8 +14318,11 @@
         <f t="shared" si="17"/>
         <v>5</v>
       </c>
+      <c r="AU78">
+        <v>5</v>
+      </c>
     </row>
-    <row r="79" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11">
         <f t="shared" si="18"/>
         <v>36</v>
@@ -14239,8 +14457,11 @@
         <f t="shared" si="17"/>
         <v>6</v>
       </c>
+      <c r="AU79">
+        <v>5</v>
+      </c>
     </row>
-    <row r="80" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="11">
         <f t="shared" si="18"/>
         <v>37</v>
@@ -14382,8 +14603,11 @@
         <f t="shared" si="17"/>
         <v>6</v>
       </c>
+      <c r="AU80">
+        <v>7</v>
+      </c>
     </row>
-    <row r="81" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11">
         <f t="shared" si="18"/>
         <v>37</v>
@@ -14518,8 +14742,11 @@
         <f t="shared" si="17"/>
         <v>6</v>
       </c>
+      <c r="AU81">
+        <v>7</v>
+      </c>
     </row>
-    <row r="82" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11">
         <f t="shared" si="18"/>
         <v>37</v>
@@ -14654,8 +14881,11 @@
         <f t="shared" si="17"/>
         <v>6</v>
       </c>
+      <c r="AU82">
+        <v>7</v>
+      </c>
     </row>
-    <row r="83" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="11">
         <f t="shared" si="18"/>
         <v>38</v>
@@ -14790,8 +15020,11 @@
         <f t="shared" si="17"/>
         <v>11</v>
       </c>
+      <c r="AU83">
+        <v>7</v>
+      </c>
     </row>
-    <row r="84" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="11">
         <f t="shared" si="18"/>
         <v>38</v>
@@ -14914,8 +15147,11 @@
         <f t="shared" si="17"/>
         <v>4</v>
       </c>
+      <c r="AU84">
+        <v>7</v>
+      </c>
     </row>
-    <row r="85" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="11">
         <f t="shared" si="18"/>
         <v>39</v>
@@ -15044,8 +15280,11 @@
         <f t="shared" si="17"/>
         <v>3</v>
       </c>
+      <c r="AU85">
+        <v>8</v>
+      </c>
     </row>
-    <row r="86" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11">
         <f t="shared" si="18"/>
         <v>39</v>
@@ -15177,8 +15416,11 @@
         <f t="shared" si="17"/>
         <v>9</v>
       </c>
+      <c r="AU86">
+        <v>8</v>
+      </c>
     </row>
-    <row r="87" spans="1:46" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:47" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="74">
         <f t="shared" si="18"/>
         <v>40</v>
@@ -15317,8 +15559,11 @@
         <f t="shared" si="17"/>
         <v>10</v>
       </c>
+      <c r="AU87">
+        <v>8</v>
+      </c>
     </row>
-    <row r="88" spans="1:46" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:47" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="74">
         <f t="shared" si="18"/>
         <v>40</v>
@@ -15457,8 +15702,11 @@
         <f t="shared" si="17"/>
         <v>10</v>
       </c>
+      <c r="AU88">
+        <v>8</v>
+      </c>
     </row>
-    <row r="89" spans="1:46" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:47" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="74">
         <f t="shared" si="18"/>
         <v>40</v>
@@ -15597,8 +15845,11 @@
         <f t="shared" si="17"/>
         <v>10</v>
       </c>
+      <c r="AU89">
+        <v>8</v>
+      </c>
     </row>
-    <row r="90" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11">
         <f t="shared" si="18"/>
         <v>41</v>
@@ -15733,8 +15984,11 @@
         <f t="shared" si="17"/>
         <v>5</v>
       </c>
+      <c r="AU90">
+        <v>8</v>
+      </c>
     </row>
-    <row r="91" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="11">
         <f t="shared" si="18"/>
         <v>41</v>
@@ -15869,8 +16123,11 @@
         <f t="shared" si="17"/>
         <v>4</v>
       </c>
+      <c r="AU91">
+        <v>8</v>
+      </c>
     </row>
-    <row r="92" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="11">
         <f t="shared" si="18"/>
         <v>42</v>
@@ -16005,8 +16262,11 @@
         <f t="shared" si="17"/>
         <v>7</v>
       </c>
+      <c r="AU92">
+        <v>6</v>
+      </c>
     </row>
-    <row r="93" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="11">
         <f t="shared" si="18"/>
         <v>42</v>
@@ -16141,8 +16401,11 @@
         <f t="shared" si="17"/>
         <v>6</v>
       </c>
+      <c r="AU93">
+        <v>6</v>
+      </c>
     </row>
-    <row r="94" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="11">
         <f t="shared" si="18"/>
         <v>43</v>
@@ -16277,8 +16540,11 @@
         <f t="shared" si="17"/>
         <v>3</v>
       </c>
+      <c r="AU94">
+        <v>5</v>
+      </c>
     </row>
-    <row r="95" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="11">
         <f t="shared" si="18"/>
         <v>43</v>
@@ -16413,8 +16679,11 @@
         <f t="shared" si="17"/>
         <v>6</v>
       </c>
+      <c r="AU95">
+        <v>5</v>
+      </c>
     </row>
-    <row r="96" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="11">
         <f t="shared" si="18"/>
         <v>44</v>
@@ -16549,8 +16818,11 @@
         <f t="shared" si="17"/>
         <v>7</v>
       </c>
+      <c r="AU96">
+        <v>5</v>
+      </c>
     </row>
-    <row r="97" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="11">
         <f t="shared" si="18"/>
         <v>44</v>
@@ -16685,8 +16957,11 @@
         <f t="shared" si="17"/>
         <v>5</v>
       </c>
+      <c r="AU97">
+        <v>5</v>
+      </c>
     </row>
-    <row r="98" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11">
         <f t="shared" si="18"/>
         <v>45</v>
@@ -16821,8 +17096,11 @@
         <f t="shared" si="17"/>
         <v>7</v>
       </c>
+      <c r="AU98">
+        <v>6</v>
+      </c>
     </row>
-    <row r="99" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="11">
         <f t="shared" si="18"/>
         <v>45</v>
@@ -16957,8 +17235,11 @@
         <f t="shared" si="17"/>
         <v>5</v>
       </c>
+      <c r="AU99">
+        <v>6</v>
+      </c>
     </row>
-    <row r="100" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="11">
         <f t="shared" si="18"/>
         <v>46</v>
@@ -17090,8 +17371,11 @@
         <f t="shared" si="17"/>
         <v>7</v>
       </c>
+      <c r="AU100">
+        <v>6</v>
+      </c>
     </row>
-    <row r="101" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="11">
         <f t="shared" si="18"/>
         <v>46</v>
@@ -17222,8 +17506,11 @@
         <f t="shared" si="17"/>
         <v>7</v>
       </c>
+      <c r="AU101">
+        <v>6</v>
+      </c>
     </row>
-    <row r="102" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="11">
         <f t="shared" si="18"/>
         <v>47</v>
@@ -17343,8 +17630,11 @@
         <f t="shared" si="17"/>
         <v>7</v>
       </c>
+      <c r="AU102">
+        <v>8</v>
+      </c>
     </row>
-    <row r="103" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="11">
         <f t="shared" si="18"/>
         <v>47</v>
@@ -17464,8 +17754,11 @@
         <f t="shared" si="17"/>
         <v>5</v>
       </c>
+      <c r="AU103">
+        <v>8</v>
+      </c>
     </row>
-    <row r="104" spans="1:46" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:47" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="24">
         <f t="shared" si="18"/>
         <v>48</v>
@@ -17607,8 +17900,11 @@
         <f t="shared" si="17"/>
         <v>3</v>
       </c>
+      <c r="AU104">
+        <v>7</v>
+      </c>
     </row>
-    <row r="105" spans="1:46" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:47" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="24">
         <f t="shared" si="18"/>
         <v>48</v>
@@ -17750,8 +18046,11 @@
         <f t="shared" si="17"/>
         <v>5</v>
       </c>
+      <c r="AU105">
+        <v>7</v>
+      </c>
     </row>
-    <row r="106" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="11">
         <f t="shared" si="18"/>
         <v>49</v>
@@ -17868,8 +18167,11 @@
         <f t="shared" si="17"/>
         <v>6</v>
       </c>
+      <c r="AU106">
+        <v>4</v>
+      </c>
     </row>
-    <row r="107" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="11">
         <f t="shared" si="18"/>
         <v>49</v>
@@ -17986,8 +18288,11 @@
         <f t="shared" si="17"/>
         <v>6</v>
       </c>
+      <c r="AU107">
+        <v>4</v>
+      </c>
     </row>
-    <row r="108" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="11">
         <f t="shared" si="18"/>
         <v>50</v>
@@ -18104,8 +18409,11 @@
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
+      <c r="AU108">
+        <v>8</v>
+      </c>
     </row>
-    <row r="109" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="11">
         <f t="shared" si="18"/>
         <v>50</v>
@@ -18222,8 +18530,11 @@
         <f t="shared" si="17"/>
         <v>5</v>
       </c>
+      <c r="AU109">
+        <v>8</v>
+      </c>
     </row>
-    <row r="110" spans="1:46" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:47" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="24">
         <f t="shared" si="18"/>
         <v>51</v>
@@ -18349,8 +18660,11 @@
         <f t="shared" si="17"/>
         <v>4</v>
       </c>
+      <c r="AU110">
+        <v>7</v>
+      </c>
     </row>
-    <row r="111" spans="1:46" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:47" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="24">
         <f t="shared" si="18"/>
         <v>51</v>
@@ -18476,8 +18790,11 @@
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
+      <c r="AU111">
+        <v>7</v>
+      </c>
     </row>
-    <row r="112" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="11">
         <f t="shared" si="18"/>
         <v>52</v>
@@ -18609,8 +18926,11 @@
         <f t="shared" si="17"/>
         <v>8</v>
       </c>
+      <c r="AU112">
+        <v>7</v>
+      </c>
     </row>
-    <row r="113" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="11">
         <f t="shared" si="18"/>
         <v>52</v>
@@ -18730,8 +19050,11 @@
         <f t="shared" si="17"/>
         <v>4</v>
       </c>
+      <c r="AU113">
+        <v>7</v>
+      </c>
     </row>
-    <row r="114" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="11">
         <f t="shared" si="18"/>
         <v>53</v>
@@ -18848,8 +19171,11 @@
         <f t="shared" si="17"/>
         <v>6</v>
       </c>
+      <c r="AU114">
+        <v>8</v>
+      </c>
     </row>
-    <row r="115" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="11">
         <f t="shared" si="18"/>
         <v>53</v>
@@ -18966,8 +19292,11 @@
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
+      <c r="AU115">
+        <v>8</v>
+      </c>
     </row>
-    <row r="116" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="11">
         <f t="shared" si="18"/>
         <v>54</v>
@@ -19102,8 +19431,11 @@
         <f t="shared" si="17"/>
         <v>3</v>
       </c>
+      <c r="AU116">
+        <v>8</v>
+      </c>
     </row>
-    <row r="117" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="11">
         <f t="shared" si="18"/>
         <v>54</v>
@@ -19238,8 +19570,11 @@
         <f t="shared" si="17"/>
         <v>3</v>
       </c>
+      <c r="AU117">
+        <v>8</v>
+      </c>
     </row>
-    <row r="118" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="11">
         <f t="shared" si="18"/>
         <v>54</v>
@@ -19374,8 +19709,11 @@
         <f t="shared" si="17"/>
         <v>3</v>
       </c>
+      <c r="AU118">
+        <v>8</v>
+      </c>
     </row>
-    <row r="119" spans="1:46" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:47" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="74">
         <f t="shared" si="18"/>
         <v>55</v>
@@ -19520,8 +19858,11 @@
         <f t="shared" si="17"/>
         <v>10</v>
       </c>
+      <c r="AU119">
+        <v>8</v>
+      </c>
     </row>
-    <row r="120" spans="1:46" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:47" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="74">
         <f t="shared" si="18"/>
         <v>55</v>
@@ -19666,8 +20007,11 @@
         <f t="shared" si="17"/>
         <v>4</v>
       </c>
+      <c r="AU120">
+        <v>8</v>
+      </c>
     </row>
-    <row r="121" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="11">
         <f t="shared" si="18"/>
         <v>56</v>
@@ -19797,7 +20141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="11">
         <f t="shared" si="18"/>
         <v>56</v>
@@ -19927,7 +20271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="11">
         <f t="shared" si="18"/>
         <v>57</v>
@@ -20053,8 +20397,11 @@
         <f t="shared" si="17"/>
         <v>7</v>
       </c>
+      <c r="AU123">
+        <v>7</v>
+      </c>
     </row>
-    <row r="124" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="11">
         <f t="shared" si="18"/>
         <v>57</v>
@@ -20180,8 +20527,11 @@
         <f t="shared" si="17"/>
         <v>7</v>
       </c>
+      <c r="AU124">
+        <v>7</v>
+      </c>
     </row>
-    <row r="125" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="11">
         <f t="shared" si="18"/>
         <v>58</v>
@@ -20316,8 +20666,11 @@
         <f t="shared" si="17"/>
         <v>7</v>
       </c>
+      <c r="AU125">
+        <v>8</v>
+      </c>
     </row>
-    <row r="126" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="11">
         <f t="shared" si="18"/>
         <v>58</v>
@@ -20452,8 +20805,11 @@
         <f t="shared" si="17"/>
         <v>7</v>
       </c>
+      <c r="AU126">
+        <v>8</v>
+      </c>
     </row>
-    <row r="127" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="11">
         <f t="shared" si="18"/>
         <v>59</v>
@@ -20588,8 +20944,11 @@
         <f t="shared" si="17"/>
         <v>8</v>
       </c>
+      <c r="AU127">
+        <v>5</v>
+      </c>
     </row>
-    <row r="128" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="11">
         <f t="shared" si="18"/>
         <v>59</v>
@@ -20724,8 +21083,11 @@
         <f t="shared" si="17"/>
         <v>8</v>
       </c>
+      <c r="AU128">
+        <v>5</v>
+      </c>
     </row>
-    <row r="129" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="11">
         <f t="shared" si="18"/>
         <v>60</v>
@@ -20851,8 +21213,11 @@
         <f t="shared" si="17"/>
         <v>5</v>
       </c>
+      <c r="AU129">
+        <v>5</v>
+      </c>
     </row>
-    <row r="130" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="11">
         <f t="shared" si="18"/>
         <v>60</v>
@@ -20978,8 +21343,11 @@
         <f t="shared" si="17"/>
         <v>5</v>
       </c>
+      <c r="AU130">
+        <v>5</v>
+      </c>
     </row>
-    <row r="131" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="11">
         <f t="shared" si="18"/>
         <v>61</v>
@@ -21115,7 +21483,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="11">
         <f t="shared" si="18"/>
         <v>61</v>
@@ -21251,7 +21619,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:46" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:47" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="24">
         <f t="shared" si="18"/>
         <v>62</v>
@@ -21390,8 +21758,11 @@
         <f t="shared" si="27"/>
         <v>5</v>
       </c>
+      <c r="AU133">
+        <v>8</v>
+      </c>
     </row>
-    <row r="134" spans="1:46" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:47" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="24">
         <f t="shared" ref="A134:A197" si="28">IF(B134=B133,A133,A133+1)</f>
         <v>62</v>
@@ -21526,8 +21897,11 @@
         <f t="shared" si="27"/>
         <v>7</v>
       </c>
+      <c r="AU134">
+        <v>8</v>
+      </c>
     </row>
-    <row r="135" spans="1:46" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:47" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="24">
         <f t="shared" si="28"/>
         <v>62</v>
@@ -21662,8 +22036,11 @@
         <f t="shared" si="27"/>
         <v>7</v>
       </c>
+      <c r="AU135">
+        <v>8</v>
+      </c>
     </row>
-    <row r="136" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="11">
         <f t="shared" si="28"/>
         <v>63</v>
@@ -21798,8 +22175,11 @@
         <f t="shared" si="27"/>
         <v>4</v>
       </c>
+      <c r="AU136">
+        <v>7</v>
+      </c>
     </row>
-    <row r="137" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="11">
         <f t="shared" si="28"/>
         <v>63</v>
@@ -21934,8 +22314,11 @@
         <f t="shared" si="27"/>
         <v>6</v>
       </c>
+      <c r="AU137">
+        <v>7</v>
+      </c>
     </row>
-    <row r="138" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="11">
         <f t="shared" si="28"/>
         <v>63</v>
@@ -22070,8 +22453,11 @@
         <f t="shared" si="27"/>
         <v>6</v>
       </c>
+      <c r="AU138">
+        <v>7</v>
+      </c>
     </row>
-    <row r="139" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="11">
         <f t="shared" si="28"/>
         <v>64</v>
@@ -22202,8 +22588,11 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
+      <c r="AU139">
+        <v>7</v>
+      </c>
     </row>
-    <row r="140" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="11">
         <f t="shared" si="28"/>
         <v>64</v>
@@ -22338,8 +22727,11 @@
         <f t="shared" si="27"/>
         <v>8</v>
       </c>
+      <c r="AU140">
+        <v>7</v>
+      </c>
     </row>
-    <row r="141" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="11">
         <f t="shared" si="28"/>
         <v>64</v>
@@ -22474,8 +22866,11 @@
         <f t="shared" si="27"/>
         <v>8</v>
       </c>
+      <c r="AU141">
+        <v>7</v>
+      </c>
     </row>
-    <row r="142" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="11">
         <f t="shared" si="28"/>
         <v>64</v>
@@ -22610,8 +23005,11 @@
         <f t="shared" si="27"/>
         <v>8</v>
       </c>
+      <c r="AU142">
+        <v>7</v>
+      </c>
     </row>
-    <row r="143" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="11">
         <f t="shared" si="28"/>
         <v>65</v>
@@ -22742,8 +23140,11 @@
         <f t="shared" si="27"/>
         <v>4</v>
       </c>
+      <c r="AU143">
+        <v>7</v>
+      </c>
     </row>
-    <row r="144" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="11">
         <f t="shared" si="28"/>
         <v>65</v>
@@ -22874,8 +23275,11 @@
         <f t="shared" si="27"/>
         <v>9</v>
       </c>
+      <c r="AU144">
+        <v>7</v>
+      </c>
     </row>
-    <row r="145" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="11">
         <f t="shared" si="28"/>
         <v>65</v>
@@ -23006,8 +23410,11 @@
         <f t="shared" si="27"/>
         <v>9</v>
       </c>
+      <c r="AU145">
+        <v>7</v>
+      </c>
     </row>
-    <row r="146" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="11">
         <f t="shared" si="28"/>
         <v>65</v>
@@ -23138,8 +23545,11 @@
         <f t="shared" si="27"/>
         <v>9</v>
       </c>
+      <c r="AU146">
+        <v>7</v>
+      </c>
     </row>
-    <row r="147" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="11">
         <f t="shared" si="28"/>
         <v>66</v>
@@ -23275,8 +23685,11 @@
         <f t="shared" si="27"/>
         <v>5</v>
       </c>
+      <c r="AU147">
+        <v>7</v>
+      </c>
     </row>
-    <row r="148" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="11">
         <f t="shared" si="28"/>
         <v>66</v>
@@ -23412,8 +23825,11 @@
         <f t="shared" si="27"/>
         <v>7</v>
       </c>
+      <c r="AU148">
+        <v>7</v>
+      </c>
     </row>
-    <row r="149" spans="1:46" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:47" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="24">
         <f t="shared" si="28"/>
         <v>67</v>
@@ -23542,8 +23958,11 @@
         <f t="shared" si="27"/>
         <v>6</v>
       </c>
+      <c r="AU149">
+        <v>4</v>
+      </c>
     </row>
-    <row r="150" spans="1:46" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:47" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="24">
         <f t="shared" si="28"/>
         <v>67</v>
@@ -23672,8 +24091,11 @@
         <f t="shared" si="27"/>
         <v>7</v>
       </c>
+      <c r="AU150">
+        <v>4</v>
+      </c>
     </row>
-    <row r="151" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="11">
         <f t="shared" si="28"/>
         <v>68</v>
@@ -23792,8 +24214,11 @@
         <f t="shared" si="27"/>
         <v>4</v>
       </c>
+      <c r="AU151">
+        <v>7</v>
+      </c>
     </row>
-    <row r="152" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="11">
         <f t="shared" si="28"/>
         <v>68</v>
@@ -23912,8 +24337,11 @@
         <f t="shared" si="27"/>
         <v>6</v>
       </c>
+      <c r="AU152">
+        <v>7</v>
+      </c>
     </row>
-    <row r="153" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="11">
         <f t="shared" si="28"/>
         <v>69</v>
@@ -24045,8 +24473,11 @@
         <f t="shared" si="27"/>
         <v>9</v>
       </c>
+      <c r="AU153">
+        <v>4</v>
+      </c>
     </row>
-    <row r="154" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="11">
         <f t="shared" si="28"/>
         <v>69</v>
@@ -24178,8 +24609,11 @@
         <f t="shared" si="27"/>
         <v>9</v>
       </c>
+      <c r="AU154">
+        <v>4</v>
+      </c>
     </row>
-    <row r="155" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="11">
         <f t="shared" si="28"/>
         <v>70</v>
@@ -24314,8 +24748,11 @@
         <f t="shared" si="27"/>
         <v>6</v>
       </c>
+      <c r="AU155">
+        <v>4</v>
+      </c>
     </row>
-    <row r="156" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="11">
         <f t="shared" si="28"/>
         <v>70</v>
@@ -24450,8 +24887,11 @@
         <f t="shared" si="27"/>
         <v>5</v>
       </c>
+      <c r="AU156">
+        <v>4</v>
+      </c>
     </row>
-    <row r="157" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="11">
         <f t="shared" si="28"/>
         <v>71</v>
@@ -24586,8 +25026,11 @@
         <f t="shared" si="27"/>
         <v>7</v>
       </c>
+      <c r="AU157">
+        <v>4</v>
+      </c>
     </row>
-    <row r="158" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="11">
         <f t="shared" si="28"/>
         <v>71</v>
@@ -24722,8 +25165,11 @@
         <f t="shared" si="27"/>
         <v>4</v>
       </c>
+      <c r="AU158">
+        <v>4</v>
+      </c>
     </row>
-    <row r="159" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="11">
         <f t="shared" si="28"/>
         <v>72</v>
@@ -24855,8 +25301,11 @@
         <f t="shared" si="27"/>
         <v>7</v>
       </c>
+      <c r="AU159">
+        <v>7</v>
+      </c>
     </row>
-    <row r="160" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="11">
         <f t="shared" si="28"/>
         <v>72</v>
@@ -24988,8 +25437,11 @@
         <f t="shared" si="27"/>
         <v>7</v>
       </c>
+      <c r="AU160">
+        <v>7</v>
+      </c>
     </row>
-    <row r="161" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="11">
         <f t="shared" si="28"/>
         <v>73</v>
@@ -25112,8 +25564,11 @@
         <f t="shared" si="27"/>
         <v>6</v>
       </c>
+      <c r="AU161">
+        <v>4</v>
+      </c>
     </row>
-    <row r="162" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="11">
         <f t="shared" si="28"/>
         <v>73</v>
@@ -25236,8 +25691,11 @@
         <f t="shared" si="27"/>
         <v>7</v>
       </c>
+      <c r="AU162">
+        <v>4</v>
+      </c>
     </row>
-    <row r="163" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="11">
         <f t="shared" si="28"/>
         <v>74</v>
@@ -25375,8 +25833,11 @@
         <f t="shared" si="27"/>
         <v>9</v>
       </c>
+      <c r="AU163">
+        <v>7</v>
+      </c>
     </row>
-    <row r="164" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="11">
         <f t="shared" si="28"/>
         <v>74</v>
@@ -25514,8 +25975,11 @@
         <f t="shared" si="27"/>
         <v>5</v>
       </c>
+      <c r="AU164">
+        <v>7</v>
+      </c>
     </row>
-    <row r="165" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="11">
         <f t="shared" si="28"/>
         <v>75</v>
@@ -25650,8 +26114,11 @@
         <f t="shared" si="27"/>
         <v>5</v>
       </c>
+      <c r="AU165">
+        <v>5</v>
+      </c>
     </row>
-    <row r="166" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="11">
         <f t="shared" si="28"/>
         <v>75</v>
@@ -25786,8 +26253,11 @@
         <f t="shared" si="27"/>
         <v>7</v>
       </c>
+      <c r="AU166">
+        <v>5</v>
+      </c>
     </row>
-    <row r="167" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="11">
         <f t="shared" si="28"/>
         <v>76</v>
@@ -25919,8 +26389,11 @@
         <f t="shared" si="27"/>
         <v>4</v>
       </c>
+      <c r="AU167">
+        <v>4</v>
+      </c>
     </row>
-    <row r="168" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="11">
         <f t="shared" si="28"/>
         <v>76</v>
@@ -26052,8 +26525,11 @@
         <f t="shared" si="27"/>
         <v>7</v>
       </c>
+      <c r="AU168">
+        <v>4</v>
+      </c>
     </row>
-    <row r="169" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="11">
         <f t="shared" si="28"/>
         <v>77</v>
@@ -26173,8 +26649,11 @@
         <f t="shared" si="27"/>
         <v>5</v>
       </c>
+      <c r="AU169">
+        <v>7</v>
+      </c>
     </row>
-    <row r="170" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="11">
         <f t="shared" si="28"/>
         <v>77</v>
@@ -26300,8 +26779,11 @@
         <f t="shared" si="27"/>
         <v>8</v>
       </c>
+      <c r="AU170">
+        <v>7</v>
+      </c>
     </row>
-    <row r="171" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="11">
         <f t="shared" si="28"/>
         <v>77</v>
@@ -26427,8 +26909,11 @@
         <f t="shared" si="27"/>
         <v>8</v>
       </c>
+      <c r="AU171">
+        <v>7</v>
+      </c>
     </row>
-    <row r="172" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="11">
         <f t="shared" si="28"/>
         <v>78</v>
@@ -26545,8 +27030,11 @@
         <f t="shared" si="27"/>
         <v>3</v>
       </c>
+      <c r="AU172">
+        <v>6</v>
+      </c>
     </row>
-    <row r="173" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="11">
         <f t="shared" si="28"/>
         <v>78</v>
@@ -26663,8 +27151,11 @@
         <f t="shared" si="27"/>
         <v>8</v>
       </c>
+      <c r="AU173">
+        <v>6</v>
+      </c>
     </row>
-    <row r="174" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="11">
         <f t="shared" si="28"/>
         <v>79</v>
@@ -26790,8 +27281,11 @@
         <f t="shared" si="27"/>
         <v>5</v>
       </c>
+      <c r="AU174">
+        <v>8</v>
+      </c>
     </row>
-    <row r="175" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="11">
         <f t="shared" si="28"/>
         <v>79</v>
@@ -26917,8 +27411,11 @@
         <f t="shared" si="27"/>
         <v>6</v>
       </c>
+      <c r="AU175">
+        <v>8</v>
+      </c>
     </row>
-    <row r="176" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="11">
         <f t="shared" si="28"/>
         <v>79</v>
@@ -27044,8 +27541,11 @@
         <f t="shared" si="27"/>
         <v>5</v>
       </c>
+      <c r="AU176">
+        <v>8</v>
+      </c>
     </row>
-    <row r="177" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="11">
         <f t="shared" si="28"/>
         <v>80</v>
@@ -27181,7 +27681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="11">
         <f t="shared" si="28"/>
         <v>80</v>
@@ -27314,7 +27814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="11">
         <f t="shared" si="28"/>
         <v>81</v>
@@ -27452,8 +27952,11 @@
         <f t="shared" si="27"/>
         <v>6</v>
       </c>
+      <c r="AU179">
+        <v>6</v>
+      </c>
     </row>
-    <row r="180" spans="1:46" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:47" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="11">
         <f t="shared" si="28"/>
         <v>81</v>
@@ -27591,8 +28094,11 @@
         <f t="shared" si="27"/>
         <v>7</v>
       </c>
+      <c r="AU180">
+        <v>6</v>
+      </c>
     </row>
-    <row r="181" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="11">
         <f t="shared" si="28"/>
         <v>82</v>
@@ -27727,8 +28233,11 @@
         <f t="shared" si="27"/>
         <v>2</v>
       </c>
+      <c r="AU181">
+        <v>4</v>
+      </c>
     </row>
-    <row r="182" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="11">
         <f t="shared" si="28"/>
         <v>82</v>
@@ -27863,8 +28372,11 @@
         <f t="shared" si="27"/>
         <v>6</v>
       </c>
+      <c r="AU182">
+        <v>4</v>
+      </c>
     </row>
-    <row r="183" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="11">
         <f t="shared" si="28"/>
         <v>83</v>
@@ -27999,8 +28511,11 @@
         <f t="shared" si="27"/>
         <v>4</v>
       </c>
+      <c r="AU183">
+        <v>5</v>
+      </c>
     </row>
-    <row r="184" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="11">
         <f t="shared" si="28"/>
         <v>83</v>
@@ -28135,8 +28650,11 @@
         <f t="shared" si="27"/>
         <v>8</v>
       </c>
+      <c r="AU184">
+        <v>5</v>
+      </c>
     </row>
-    <row r="185" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="11">
         <f t="shared" si="28"/>
         <v>84</v>
@@ -28268,8 +28786,11 @@
         <f t="shared" si="27"/>
         <v>4</v>
       </c>
+      <c r="AU185">
+        <v>8</v>
+      </c>
     </row>
-    <row r="186" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="11">
         <f t="shared" si="28"/>
         <v>84</v>
@@ -28404,8 +28925,11 @@
         <f t="shared" si="27"/>
         <v>8</v>
       </c>
+      <c r="AU186">
+        <v>8</v>
+      </c>
     </row>
-    <row r="187" spans="1:46" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:47" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="24">
         <f t="shared" si="28"/>
         <v>85</v>
@@ -28544,8 +29068,11 @@
         <f t="shared" si="27"/>
         <v>6</v>
       </c>
+      <c r="AU187">
+        <v>7</v>
+      </c>
     </row>
-    <row r="188" spans="1:46" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:47" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="24">
         <f t="shared" si="28"/>
         <v>85</v>
@@ -28684,8 +29211,11 @@
         <f t="shared" si="27"/>
         <v>6</v>
       </c>
+      <c r="AU188">
+        <v>7</v>
+      </c>
     </row>
-    <row r="189" spans="1:46" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:47" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="24">
         <f t="shared" si="28"/>
         <v>85</v>
@@ -28824,8 +29354,11 @@
         <f t="shared" si="27"/>
         <v>6</v>
       </c>
+      <c r="AU189">
+        <v>7</v>
+      </c>
     </row>
-    <row r="190" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="11">
         <f t="shared" si="28"/>
         <v>86</v>
@@ -28960,8 +29493,11 @@
         <f t="shared" si="27"/>
         <v>3</v>
       </c>
+      <c r="AU190">
+        <v>5</v>
+      </c>
     </row>
-    <row r="191" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="11">
         <f t="shared" si="28"/>
         <v>86</v>
@@ -29096,8 +29632,11 @@
         <f t="shared" si="27"/>
         <v>6</v>
       </c>
+      <c r="AU191">
+        <v>5</v>
+      </c>
     </row>
-    <row r="192" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="11">
         <f t="shared" si="28"/>
         <v>87</v>
@@ -29220,8 +29759,11 @@
         <f t="shared" si="27"/>
         <v>5</v>
       </c>
+      <c r="AU192">
+        <v>8</v>
+      </c>
     </row>
-    <row r="193" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="11">
         <f t="shared" si="28"/>
         <v>87</v>
@@ -29344,8 +29886,11 @@
         <f t="shared" si="27"/>
         <v>8</v>
       </c>
+      <c r="AU193">
+        <v>8</v>
+      </c>
     </row>
-    <row r="194" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="11">
         <f t="shared" si="28"/>
         <v>88</v>
@@ -29480,8 +30025,11 @@
         <f t="shared" si="27"/>
         <v>5</v>
       </c>
+      <c r="AU194">
+        <v>8</v>
+      </c>
     </row>
-    <row r="195" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="11">
         <f t="shared" si="28"/>
         <v>88</v>
@@ -29616,8 +30164,11 @@
         <f t="shared" ref="AT195:AT258" si="35">SUM(AH195:AS195)</f>
         <v>6</v>
       </c>
+      <c r="AU195">
+        <v>8</v>
+      </c>
     </row>
-    <row r="196" spans="1:46" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:47" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="24">
         <f t="shared" si="28"/>
         <v>89</v>
@@ -29754,8 +30305,11 @@
         <f t="shared" si="35"/>
         <v>7</v>
       </c>
+      <c r="AU196">
+        <v>6</v>
+      </c>
     </row>
-    <row r="197" spans="1:46" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:47" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="24">
         <f t="shared" si="28"/>
         <v>89</v>
@@ -29892,8 +30446,11 @@
         <f t="shared" si="35"/>
         <v>7</v>
       </c>
+      <c r="AU197">
+        <v>6</v>
+      </c>
     </row>
-    <row r="198" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="11">
         <f t="shared" ref="A198:A261" si="36">IF(B198=B197,A197,A197+1)</f>
         <v>90</v>
@@ -30025,8 +30582,11 @@
         <f t="shared" si="35"/>
         <v>5</v>
       </c>
+      <c r="AU198">
+        <v>6</v>
+      </c>
     </row>
-    <row r="199" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="11">
         <f t="shared" si="36"/>
         <v>90</v>
@@ -30158,8 +30718,11 @@
         <f t="shared" si="35"/>
         <v>7</v>
       </c>
+      <c r="AU199">
+        <v>6</v>
+      </c>
     </row>
-    <row r="200" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="11">
         <f t="shared" si="36"/>
         <v>91</v>
@@ -30282,8 +30845,11 @@
         <f t="shared" si="35"/>
         <v>3</v>
       </c>
+      <c r="AU200">
+        <v>5</v>
+      </c>
     </row>
-    <row r="201" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="11">
         <f t="shared" si="36"/>
         <v>91</v>
@@ -30409,8 +30975,11 @@
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
+      <c r="AU201">
+        <v>5</v>
+      </c>
     </row>
-    <row r="202" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="11">
         <f t="shared" si="36"/>
         <v>92</v>
@@ -30546,7 +31115,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="203" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="11">
         <f t="shared" si="36"/>
         <v>92</v>
@@ -30682,7 +31251,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="11">
         <f t="shared" si="36"/>
         <v>93</v>
@@ -30817,8 +31386,11 @@
         <f t="shared" si="35"/>
         <v>7</v>
       </c>
+      <c r="AU204">
+        <v>8</v>
+      </c>
     </row>
-    <row r="205" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="11">
         <f t="shared" si="36"/>
         <v>93</v>
@@ -30953,8 +31525,11 @@
         <f t="shared" si="35"/>
         <v>8</v>
       </c>
+      <c r="AU205">
+        <v>8</v>
+      </c>
     </row>
-    <row r="206" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="11">
         <f t="shared" si="36"/>
         <v>93</v>
@@ -31089,8 +31664,11 @@
         <f t="shared" si="35"/>
         <v>8</v>
       </c>
+      <c r="AU206">
+        <v>8</v>
+      </c>
     </row>
-    <row r="207" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="11">
         <f t="shared" si="36"/>
         <v>93</v>
@@ -31225,8 +31803,11 @@
         <f t="shared" si="35"/>
         <v>8</v>
       </c>
+      <c r="AU207">
+        <v>8</v>
+      </c>
     </row>
-    <row r="208" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="11">
         <f t="shared" si="36"/>
         <v>94</v>
@@ -31364,8 +31945,11 @@
         <f t="shared" si="35"/>
         <v>4</v>
       </c>
+      <c r="AU208">
+        <v>5</v>
+      </c>
     </row>
-    <row r="209" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="11">
         <f t="shared" si="36"/>
         <v>94</v>
@@ -31503,8 +32087,11 @@
         <f t="shared" si="35"/>
         <v>8</v>
       </c>
+      <c r="AU209">
+        <v>5</v>
+      </c>
     </row>
-    <row r="210" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="11">
         <f t="shared" si="36"/>
         <v>95</v>
@@ -31639,8 +32226,11 @@
         <f t="shared" si="35"/>
         <v>5</v>
       </c>
+      <c r="AU210">
+        <v>6</v>
+      </c>
     </row>
-    <row r="211" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="11">
         <f t="shared" si="36"/>
         <v>95</v>
@@ -31775,8 +32365,11 @@
         <f t="shared" si="35"/>
         <v>7</v>
       </c>
+      <c r="AU211">
+        <v>6</v>
+      </c>
     </row>
-    <row r="212" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="11">
         <f t="shared" si="36"/>
         <v>96</v>
@@ -31911,8 +32504,11 @@
         <f t="shared" si="35"/>
         <v>4</v>
       </c>
+      <c r="AU212">
+        <v>6</v>
+      </c>
     </row>
-    <row r="213" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="11">
         <f t="shared" si="36"/>
         <v>96</v>
@@ -32047,8 +32643,11 @@
         <f t="shared" si="35"/>
         <v>7</v>
       </c>
+      <c r="AU213">
+        <v>6</v>
+      </c>
     </row>
-    <row r="214" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="11">
         <f t="shared" si="36"/>
         <v>97</v>
@@ -32180,8 +32779,11 @@
         <f t="shared" si="35"/>
         <v>2</v>
       </c>
+      <c r="AU214">
+        <v>6</v>
+      </c>
     </row>
-    <row r="215" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="11">
         <f t="shared" si="36"/>
         <v>97</v>
@@ -32313,8 +32915,11 @@
         <f t="shared" si="35"/>
         <v>5</v>
       </c>
+      <c r="AU215">
+        <v>6</v>
+      </c>
     </row>
-    <row r="216" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="11">
         <f t="shared" si="36"/>
         <v>97</v>
@@ -32446,8 +33051,11 @@
         <f t="shared" si="35"/>
         <v>5</v>
       </c>
+      <c r="AU216">
+        <v>6</v>
+      </c>
     </row>
-    <row r="217" spans="1:46" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:47" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="74">
         <f t="shared" si="36"/>
         <v>98</v>
@@ -32575,8 +33183,11 @@
         <f t="shared" si="35"/>
         <v>3</v>
       </c>
+      <c r="AU217">
+        <v>7</v>
+      </c>
     </row>
-    <row r="218" spans="1:46" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:47" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="74">
         <f t="shared" si="36"/>
         <v>98</v>
@@ -32712,8 +33323,11 @@
         <f t="shared" si="35"/>
         <v>8</v>
       </c>
+      <c r="AU218">
+        <v>7</v>
+      </c>
     </row>
-    <row r="219" spans="1:46" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:47" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="74">
         <f t="shared" si="36"/>
         <v>98</v>
@@ -32849,8 +33463,11 @@
         <f t="shared" si="35"/>
         <v>7</v>
       </c>
+      <c r="AU219">
+        <v>7</v>
+      </c>
     </row>
-    <row r="220" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="11">
         <f t="shared" si="36"/>
         <v>99</v>
@@ -32970,8 +33587,11 @@
         <f t="shared" si="35"/>
         <v>4</v>
       </c>
+      <c r="AU220">
+        <v>7</v>
+      </c>
     </row>
-    <row r="221" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="11">
         <f t="shared" si="36"/>
         <v>99</v>
@@ -33091,8 +33711,11 @@
         <f t="shared" si="35"/>
         <v>5</v>
       </c>
+      <c r="AU221">
+        <v>7</v>
+      </c>
     </row>
-    <row r="222" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="11">
         <f t="shared" si="36"/>
         <v>100</v>
@@ -33227,8 +33850,11 @@
         <f t="shared" si="35"/>
         <v>5</v>
       </c>
+      <c r="AU222">
+        <v>5</v>
+      </c>
     </row>
-    <row r="223" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="11">
         <f t="shared" si="36"/>
         <v>100</v>
@@ -33363,8 +33989,11 @@
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
+      <c r="AU223">
+        <v>5</v>
+      </c>
     </row>
-    <row r="224" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="11">
         <f t="shared" si="36"/>
         <v>101</v>
@@ -33496,8 +34125,11 @@
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
+      <c r="AU224">
+        <v>6</v>
+      </c>
     </row>
-    <row r="225" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="11">
         <f t="shared" si="36"/>
         <v>101</v>
@@ -33632,8 +34264,11 @@
         <f t="shared" si="35"/>
         <v>8</v>
       </c>
+      <c r="AU225">
+        <v>6</v>
+      </c>
     </row>
-    <row r="226" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="11">
         <f t="shared" si="36"/>
         <v>102</v>
@@ -33765,8 +34400,11 @@
         <f t="shared" si="35"/>
         <v>4</v>
       </c>
+      <c r="AU226">
+        <v>5</v>
+      </c>
     </row>
-    <row r="227" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="11">
         <f t="shared" si="36"/>
         <v>102</v>
@@ -33898,8 +34536,11 @@
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
+      <c r="AU227">
+        <v>5</v>
+      </c>
     </row>
-    <row r="228" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="11">
         <f t="shared" si="36"/>
         <v>103</v>
@@ -34022,8 +34663,11 @@
         <f t="shared" si="35"/>
         <v>5</v>
       </c>
+      <c r="AU228">
+        <v>6</v>
+      </c>
     </row>
-    <row r="229" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="11">
         <f t="shared" si="36"/>
         <v>103</v>
@@ -34146,8 +34790,11 @@
         <f t="shared" si="35"/>
         <v>7</v>
       </c>
+      <c r="AU229">
+        <v>6</v>
+      </c>
     </row>
-    <row r="230" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="11">
         <f t="shared" si="36"/>
         <v>104</v>
@@ -34282,8 +34929,11 @@
         <f t="shared" si="35"/>
         <v>5</v>
       </c>
+      <c r="AU230">
+        <v>6</v>
+      </c>
     </row>
-    <row r="231" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="11">
         <f t="shared" si="36"/>
         <v>104</v>
@@ -34418,8 +35068,11 @@
         <f t="shared" si="35"/>
         <v>7</v>
       </c>
+      <c r="AU231">
+        <v>6</v>
+      </c>
     </row>
-    <row r="232" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="11">
         <f t="shared" si="36"/>
         <v>105</v>
@@ -34548,8 +35201,11 @@
         <f t="shared" si="35"/>
         <v>5</v>
       </c>
+      <c r="AU232">
+        <v>7</v>
+      </c>
     </row>
-    <row r="233" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="11">
         <f t="shared" si="36"/>
         <v>105</v>
@@ -34666,8 +35322,11 @@
         <f t="shared" si="35"/>
         <v>5</v>
       </c>
+      <c r="AU233">
+        <v>7</v>
+      </c>
     </row>
-    <row r="234" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="11">
         <f t="shared" si="36"/>
         <v>106</v>
@@ -34802,8 +35461,11 @@
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
+      <c r="AU234">
+        <v>8</v>
+      </c>
     </row>
-    <row r="235" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="11">
         <f t="shared" si="36"/>
         <v>106</v>
@@ -34938,8 +35600,11 @@
         <f t="shared" si="35"/>
         <v>8</v>
       </c>
+      <c r="AU235">
+        <v>8</v>
+      </c>
     </row>
-    <row r="236" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="11">
         <f t="shared" si="36"/>
         <v>107</v>
@@ -35074,8 +35739,11 @@
         <f t="shared" si="35"/>
         <v>5</v>
       </c>
+      <c r="AU236">
+        <v>5</v>
+      </c>
     </row>
-    <row r="237" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="11">
         <f t="shared" si="36"/>
         <v>107</v>
@@ -35210,8 +35878,11 @@
         <f t="shared" si="35"/>
         <v>7</v>
       </c>
+      <c r="AU237">
+        <v>5</v>
+      </c>
     </row>
-    <row r="238" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="11">
         <f t="shared" si="36"/>
         <v>108</v>
@@ -35338,7 +36009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="11">
         <f t="shared" si="36"/>
         <v>108</v>
@@ -35465,7 +36136,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="240" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="11">
         <f t="shared" si="36"/>
         <v>109</v>
@@ -35591,8 +36262,11 @@
         <f t="shared" si="35"/>
         <v>5</v>
       </c>
+      <c r="AU240">
+        <v>8</v>
+      </c>
     </row>
-    <row r="241" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="11">
         <f t="shared" si="36"/>
         <v>109</v>
@@ -35718,8 +36392,11 @@
         <f t="shared" si="35"/>
         <v>7</v>
       </c>
+      <c r="AU241">
+        <v>8</v>
+      </c>
     </row>
-    <row r="242" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="11">
         <f t="shared" si="36"/>
         <v>110</v>
@@ -35857,8 +36534,11 @@
         <f t="shared" si="35"/>
         <v>5</v>
       </c>
+      <c r="AU242">
+        <v>6</v>
+      </c>
     </row>
-    <row r="243" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="11">
         <f t="shared" si="36"/>
         <v>110</v>
@@ -35996,8 +36676,11 @@
         <f t="shared" si="35"/>
         <v>8</v>
       </c>
+      <c r="AU243">
+        <v>6</v>
+      </c>
     </row>
-    <row r="244" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="11">
         <f t="shared" si="36"/>
         <v>110</v>
@@ -36135,8 +36818,11 @@
         <f t="shared" si="35"/>
         <v>5</v>
       </c>
+      <c r="AU244">
+        <v>6</v>
+      </c>
     </row>
-    <row r="245" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="11">
         <f t="shared" si="36"/>
         <v>110</v>
@@ -36274,8 +36960,11 @@
         <f t="shared" si="35"/>
         <v>7</v>
       </c>
+      <c r="AU245">
+        <v>6</v>
+      </c>
     </row>
-    <row r="246" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="11">
         <f t="shared" si="36"/>
         <v>111</v>
@@ -36413,8 +37102,11 @@
         <f t="shared" si="35"/>
         <v>3</v>
       </c>
+      <c r="AU246">
+        <v>7</v>
+      </c>
     </row>
-    <row r="247" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="11">
         <f t="shared" si="36"/>
         <v>111</v>
@@ -36552,8 +37244,11 @@
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
+      <c r="AU247">
+        <v>7</v>
+      </c>
     </row>
-    <row r="248" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="11">
         <f t="shared" si="36"/>
         <v>112</v>
@@ -36689,7 +37384,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="249" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="11">
         <f t="shared" si="36"/>
         <v>112</v>
@@ -36825,7 +37520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="250" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="11">
         <f t="shared" si="36"/>
         <v>113</v>
@@ -36960,8 +37655,11 @@
         <f t="shared" si="35"/>
         <v>6</v>
       </c>
+      <c r="AU250">
+        <v>7</v>
+      </c>
     </row>
-    <row r="251" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="11">
         <f>IF(B251=B250,A250,A250+1)</f>
         <v>113</v>
@@ -37096,8 +37794,11 @@
         <f t="shared" si="35"/>
         <v>7</v>
       </c>
+      <c r="AU251">
+        <v>7</v>
+      </c>
     </row>
-    <row r="252" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="11">
         <f t="shared" si="36"/>
         <v>114</v>
@@ -37229,8 +37930,11 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
+      <c r="AU252">
+        <v>6</v>
+      </c>
     </row>
-    <row r="253" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="11">
         <f t="shared" si="36"/>
         <v>114</v>
@@ -37366,8 +38070,11 @@
         <f t="shared" si="35"/>
         <v>10</v>
       </c>
+      <c r="AU253">
+        <v>6</v>
+      </c>
     </row>
-    <row r="254" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="11">
         <f t="shared" si="36"/>
         <v>114</v>
@@ -37503,8 +38210,11 @@
         <f t="shared" si="35"/>
         <v>9</v>
       </c>
+      <c r="AU254">
+        <v>6</v>
+      </c>
     </row>
-    <row r="255" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="11">
         <f t="shared" si="36"/>
         <v>114</v>
@@ -37640,8 +38350,11 @@
         <f t="shared" si="35"/>
         <v>10</v>
       </c>
+      <c r="AU255">
+        <v>6</v>
+      </c>
     </row>
-    <row r="256" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="11">
         <f t="shared" si="36"/>
         <v>115</v>
@@ -37785,8 +38498,11 @@
         <f t="shared" si="35"/>
         <v>8</v>
       </c>
+      <c r="AU256">
+        <v>6</v>
+      </c>
     </row>
-    <row r="257" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="11">
         <f t="shared" si="36"/>
         <v>115</v>
@@ -37930,8 +38646,11 @@
         <f t="shared" si="35"/>
         <v>8</v>
       </c>
+      <c r="AU257">
+        <v>6</v>
+      </c>
     </row>
-    <row r="258" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="11">
         <f t="shared" si="36"/>
         <v>115</v>
@@ -38075,8 +38794,11 @@
         <f t="shared" si="35"/>
         <v>8</v>
       </c>
+      <c r="AU258">
+        <v>6</v>
+      </c>
     </row>
-    <row r="259" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="11">
         <f t="shared" si="36"/>
         <v>116</v>
@@ -38216,8 +38938,11 @@
         <f t="shared" ref="AT259:AT322" si="45">SUM(AH259:AS259)</f>
         <v>6</v>
       </c>
+      <c r="AU259">
+        <v>7</v>
+      </c>
     </row>
-    <row r="260" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="11">
         <f t="shared" si="36"/>
         <v>116</v>
@@ -38357,8 +39082,11 @@
         <f t="shared" si="45"/>
         <v>9</v>
       </c>
+      <c r="AU260">
+        <v>7</v>
+      </c>
     </row>
-    <row r="261" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="11">
         <f t="shared" si="36"/>
         <v>117</v>
@@ -38494,8 +39222,11 @@
         <f t="shared" si="45"/>
         <v>6</v>
       </c>
+      <c r="AU261">
+        <v>4</v>
+      </c>
     </row>
-    <row r="262" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="11">
         <f t="shared" ref="A262:A325" si="46">IF(B262=B261,A261,A261+1)</f>
         <v>117</v>
@@ -38631,8 +39362,11 @@
         <f t="shared" si="45"/>
         <v>8</v>
       </c>
+      <c r="AU262">
+        <v>4</v>
+      </c>
     </row>
-    <row r="263" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="11">
         <f t="shared" si="46"/>
         <v>118</v>
@@ -38768,8 +39502,11 @@
         <f t="shared" si="45"/>
         <v>5</v>
       </c>
+      <c r="AU263">
+        <v>4</v>
+      </c>
     </row>
-    <row r="264" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="11">
         <f t="shared" si="46"/>
         <v>118</v>
@@ -38905,8 +39642,11 @@
         <f t="shared" si="45"/>
         <v>6</v>
       </c>
+      <c r="AU264">
+        <v>4</v>
+      </c>
     </row>
-    <row r="265" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="11">
         <f t="shared" si="46"/>
         <v>118</v>
@@ -39042,8 +39782,11 @@
         <f t="shared" si="45"/>
         <v>6</v>
       </c>
+      <c r="AU265">
+        <v>4</v>
+      </c>
     </row>
-    <row r="266" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="11">
         <f t="shared" si="46"/>
         <v>119</v>
@@ -39179,8 +39922,11 @@
         <f t="shared" si="45"/>
         <v>8</v>
       </c>
+      <c r="AU266">
+        <v>7</v>
+      </c>
     </row>
-    <row r="267" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="11">
         <f t="shared" si="46"/>
         <v>119</v>
@@ -39316,8 +40062,11 @@
         <f t="shared" si="45"/>
         <v>8</v>
       </c>
+      <c r="AU267">
+        <v>7</v>
+      </c>
     </row>
-    <row r="268" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="11">
         <f t="shared" si="46"/>
         <v>120</v>
@@ -39439,8 +40188,11 @@
         <f t="shared" si="45"/>
         <v>3</v>
       </c>
+      <c r="AU268">
+        <v>7</v>
+      </c>
     </row>
-    <row r="269" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="11">
         <f t="shared" si="46"/>
         <v>120</v>
@@ -39562,8 +40314,11 @@
         <f t="shared" si="45"/>
         <v>7</v>
       </c>
+      <c r="AU269">
+        <v>7</v>
+      </c>
     </row>
-    <row r="270" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="11">
         <f t="shared" si="46"/>
         <v>121</v>
@@ -39703,8 +40458,11 @@
         <f t="shared" si="45"/>
         <v>8</v>
       </c>
+      <c r="AU270">
+        <v>6</v>
+      </c>
     </row>
-    <row r="271" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="11">
         <f t="shared" si="46"/>
         <v>121</v>
@@ -39844,8 +40602,11 @@
         <f t="shared" si="45"/>
         <v>7</v>
       </c>
+      <c r="AU271">
+        <v>6</v>
+      </c>
     </row>
-    <row r="272" spans="1:46" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:47" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="24">
         <f t="shared" si="46"/>
         <v>122</v>
@@ -39981,8 +40742,11 @@
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
+      <c r="AU272">
+        <v>6</v>
+      </c>
     </row>
-    <row r="273" spans="1:46" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:47" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="24">
         <f t="shared" si="46"/>
         <v>122</v>
@@ -40122,8 +40886,11 @@
         <f t="shared" si="45"/>
         <v>5</v>
       </c>
+      <c r="AU273">
+        <v>6</v>
+      </c>
     </row>
-    <row r="274" spans="1:46" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:47" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="24">
         <f t="shared" si="46"/>
         <v>122</v>
@@ -40269,8 +41036,11 @@
         <f t="shared" si="45"/>
         <v>7</v>
       </c>
+      <c r="AU274">
+        <v>6</v>
+      </c>
     </row>
-    <row r="275" spans="1:46" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:47" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="24">
         <f t="shared" si="46"/>
         <v>123</v>
@@ -40410,8 +41180,11 @@
         <f t="shared" si="45"/>
         <v>5</v>
       </c>
+      <c r="AU275">
+        <v>5</v>
+      </c>
     </row>
-    <row r="276" spans="1:46" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:47" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="24">
         <f t="shared" si="46"/>
         <v>123</v>
@@ -40551,8 +41324,11 @@
         <f t="shared" si="45"/>
         <v>9</v>
       </c>
+      <c r="AU276">
+        <v>5</v>
+      </c>
     </row>
-    <row r="277" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="11">
         <f t="shared" si="46"/>
         <v>124</v>
@@ -40684,8 +41460,11 @@
         <f t="shared" si="45"/>
         <v>1</v>
       </c>
+      <c r="AU277">
+        <v>5</v>
+      </c>
     </row>
-    <row r="278" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="11">
         <f t="shared" si="46"/>
         <v>124</v>
@@ -40818,8 +41597,11 @@
         <f t="shared" si="45"/>
         <v>7</v>
       </c>
+      <c r="AU278">
+        <v>5</v>
+      </c>
     </row>
-    <row r="279" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="11">
         <f t="shared" si="46"/>
         <v>124</v>
@@ -40955,8 +41737,11 @@
         <f t="shared" si="45"/>
         <v>9</v>
       </c>
+      <c r="AU279">
+        <v>5</v>
+      </c>
     </row>
-    <row r="280" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="11">
         <f t="shared" si="46"/>
         <v>125</v>
@@ -41094,8 +41879,11 @@
         <f t="shared" si="45"/>
         <v>6</v>
       </c>
+      <c r="AU280">
+        <v>6</v>
+      </c>
     </row>
-    <row r="281" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="11">
         <f t="shared" si="46"/>
         <v>125</v>
@@ -41233,8 +42021,11 @@
         <f t="shared" si="45"/>
         <v>7</v>
       </c>
+      <c r="AU281">
+        <v>6</v>
+      </c>
     </row>
-    <row r="282" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="11">
         <f t="shared" si="46"/>
         <v>126</v>
@@ -41366,8 +42157,11 @@
         <f t="shared" si="45"/>
         <v>6</v>
       </c>
+      <c r="AU282">
+        <v>8</v>
+      </c>
     </row>
-    <row r="283" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="11">
         <f t="shared" si="46"/>
         <v>126</v>
@@ -41494,8 +42288,11 @@
         <f t="shared" si="45"/>
         <v>9</v>
       </c>
+      <c r="AU283">
+        <v>8</v>
+      </c>
     </row>
-    <row r="284" spans="1:46" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:47" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="74">
         <f t="shared" si="46"/>
         <v>127</v>
@@ -41627,8 +42424,11 @@
         <f t="shared" si="45"/>
         <v>6</v>
       </c>
+      <c r="AU284">
+        <v>7</v>
+      </c>
     </row>
-    <row r="285" spans="1:46" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:47" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="74">
         <f t="shared" si="46"/>
         <v>127</v>
@@ -41757,8 +42557,11 @@
         <f t="shared" si="45"/>
         <v>10</v>
       </c>
+      <c r="AU285">
+        <v>7</v>
+      </c>
     </row>
-    <row r="286" spans="1:46" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:47" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="24">
         <f t="shared" si="46"/>
         <v>128</v>
@@ -41896,8 +42699,11 @@
         <f t="shared" si="45"/>
         <v>5</v>
       </c>
+      <c r="AU286">
+        <v>7</v>
+      </c>
     </row>
-    <row r="287" spans="1:46" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:47" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="24">
         <f t="shared" si="46"/>
         <v>128</v>
@@ -42037,8 +42843,11 @@
         <f t="shared" si="45"/>
         <v>7</v>
       </c>
+      <c r="AU287">
+        <v>7</v>
+      </c>
     </row>
-    <row r="288" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="11">
         <f t="shared" si="46"/>
         <v>129</v>
@@ -42170,8 +42979,11 @@
         <f t="shared" si="45"/>
         <v>7</v>
       </c>
+      <c r="AU288">
+        <v>4</v>
+      </c>
     </row>
-    <row r="289" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="11">
         <f t="shared" si="46"/>
         <v>129</v>
@@ -42303,8 +43115,11 @@
         <f t="shared" si="45"/>
         <v>5</v>
       </c>
+      <c r="AU289">
+        <v>4</v>
+      </c>
     </row>
-    <row r="290" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="11">
         <f t="shared" si="46"/>
         <v>129</v>
@@ -42436,8 +43251,11 @@
         <f t="shared" si="45"/>
         <v>8</v>
       </c>
+      <c r="AU290">
+        <v>4</v>
+      </c>
     </row>
-    <row r="291" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="11">
         <f t="shared" si="46"/>
         <v>129</v>
@@ -42569,8 +43387,11 @@
         <f t="shared" si="45"/>
         <v>5</v>
       </c>
+      <c r="AU291">
+        <v>4</v>
+      </c>
     </row>
-    <row r="292" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="11">
         <f t="shared" si="46"/>
         <v>130</v>
@@ -42693,8 +43514,11 @@
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
+      <c r="AU292">
+        <v>7</v>
+      </c>
     </row>
-    <row r="293" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="11">
         <f t="shared" si="46"/>
         <v>130</v>
@@ -42823,8 +43647,11 @@
         <f t="shared" si="45"/>
         <v>7</v>
       </c>
+      <c r="AU293">
+        <v>7</v>
+      </c>
     </row>
-    <row r="294" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="11">
         <f t="shared" si="46"/>
         <v>130</v>
@@ -42953,8 +43780,11 @@
         <f t="shared" si="45"/>
         <v>5</v>
       </c>
+      <c r="AU294">
+        <v>7</v>
+      </c>
     </row>
-    <row r="295" spans="1:46" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:47" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="74">
         <f t="shared" si="46"/>
         <v>131</v>
@@ -43088,8 +43918,11 @@
         <f t="shared" si="45"/>
         <v>7</v>
       </c>
+      <c r="AU295">
+        <v>5</v>
+      </c>
     </row>
-    <row r="296" spans="1:46" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:47" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="74">
         <f t="shared" si="46"/>
         <v>131</v>
@@ -43221,8 +44054,11 @@
         <f t="shared" si="45"/>
         <v>9</v>
       </c>
+      <c r="AU296">
+        <v>5</v>
+      </c>
     </row>
-    <row r="297" spans="1:46" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:47" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="74">
         <f t="shared" si="46"/>
         <v>131</v>
@@ -43354,8 +44190,11 @@
         <f t="shared" si="45"/>
         <v>9</v>
       </c>
+      <c r="AU297">
+        <v>5</v>
+      </c>
     </row>
-    <row r="298" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="11">
         <f t="shared" si="46"/>
         <v>132</v>
@@ -43491,8 +44330,11 @@
         <f t="shared" si="45"/>
         <v>7</v>
       </c>
+      <c r="AU298">
+        <v>7</v>
+      </c>
     </row>
-    <row r="299" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="11">
         <f t="shared" si="46"/>
         <v>132</v>
@@ -43628,8 +44470,11 @@
         <f t="shared" si="45"/>
         <v>8</v>
       </c>
+      <c r="AU299">
+        <v>7</v>
+      </c>
     </row>
-    <row r="300" spans="1:46" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:47" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="24">
         <f t="shared" si="46"/>
         <v>133</v>
@@ -43757,8 +44602,11 @@
         <f t="shared" si="45"/>
         <v>9</v>
       </c>
+      <c r="AU300">
+        <v>7</v>
+      </c>
     </row>
-    <row r="301" spans="1:46" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:47" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="24">
         <f t="shared" si="46"/>
         <v>133</v>
@@ -43886,8 +44734,11 @@
         <f t="shared" si="45"/>
         <v>10</v>
       </c>
+      <c r="AU301">
+        <v>7</v>
+      </c>
     </row>
-    <row r="302" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="11">
         <f t="shared" si="46"/>
         <v>134</v>
@@ -44021,8 +44872,11 @@
         <f t="shared" si="45"/>
         <v>7</v>
       </c>
+      <c r="AU302">
+        <v>6</v>
+      </c>
     </row>
-    <row r="303" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="11">
         <f t="shared" si="46"/>
         <v>134</v>
@@ -44156,8 +45010,11 @@
         <f t="shared" si="45"/>
         <v>7</v>
       </c>
+      <c r="AU303">
+        <v>6</v>
+      </c>
     </row>
-    <row r="304" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="11">
         <f t="shared" si="46"/>
         <v>134</v>
@@ -44291,8 +45148,11 @@
         <f t="shared" si="45"/>
         <v>7</v>
       </c>
+      <c r="AU304">
+        <v>6</v>
+      </c>
     </row>
-    <row r="305" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="11">
         <f t="shared" si="46"/>
         <v>135</v>
@@ -44429,7 +45289,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="306" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="11">
         <f t="shared" si="46"/>
         <v>135</v>
@@ -44566,7 +45426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="11">
         <f t="shared" si="46"/>
         <v>136</v>
@@ -44706,8 +45566,11 @@
         <f t="shared" si="45"/>
         <v>5</v>
       </c>
+      <c r="AU307">
+        <v>7</v>
+      </c>
     </row>
-    <row r="308" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="11">
         <f t="shared" si="46"/>
         <v>136</v>
@@ -44843,8 +45706,11 @@
         <f t="shared" si="45"/>
         <v>6</v>
       </c>
+      <c r="AU308">
+        <v>7</v>
+      </c>
     </row>
-    <row r="309" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="11">
         <f t="shared" si="46"/>
         <v>137</v>
@@ -44981,7 +45847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="310" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="11">
         <f t="shared" si="46"/>
         <v>137</v>
@@ -45118,7 +45984,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="311" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="11">
         <f t="shared" si="46"/>
         <v>138</v>
@@ -45240,8 +46106,11 @@
         <f t="shared" si="45"/>
         <v>3</v>
       </c>
+      <c r="AU311">
+        <v>8</v>
+      </c>
     </row>
-    <row r="312" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="11">
         <f t="shared" si="46"/>
         <v>138</v>
@@ -45363,8 +46232,11 @@
         <f t="shared" si="45"/>
         <v>7</v>
       </c>
+      <c r="AU312">
+        <v>8</v>
+      </c>
     </row>
-    <row r="313" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="11">
         <f t="shared" si="46"/>
         <v>138</v>
@@ -45486,8 +46358,11 @@
         <f t="shared" si="45"/>
         <v>6</v>
       </c>
+      <c r="AU313">
+        <v>8</v>
+      </c>
     </row>
-    <row r="314" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="11">
         <f t="shared" si="46"/>
         <v>139</v>
@@ -45611,8 +46486,11 @@
         <f t="shared" si="45"/>
         <v>7</v>
       </c>
+      <c r="AU314">
+        <v>8</v>
+      </c>
     </row>
-    <row r="315" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="11">
         <f t="shared" si="46"/>
         <v>139</v>
@@ -45736,8 +46614,11 @@
         <f t="shared" si="45"/>
         <v>8</v>
       </c>
+      <c r="AU315">
+        <v>8</v>
+      </c>
     </row>
-    <row r="316" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="11">
         <f t="shared" si="46"/>
         <v>139</v>
@@ -45861,8 +46742,11 @@
         <f t="shared" si="45"/>
         <v>7</v>
       </c>
+      <c r="AU316">
+        <v>8</v>
+      </c>
     </row>
-    <row r="317" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="11">
         <f t="shared" si="46"/>
         <v>140</v>
@@ -45994,8 +46878,11 @@
         <f t="shared" si="45"/>
         <v>7</v>
       </c>
+      <c r="AU317">
+        <v>6</v>
+      </c>
     </row>
-    <row r="318" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="11">
         <f t="shared" si="46"/>
         <v>140</v>
@@ -46129,8 +47016,11 @@
         <f t="shared" si="45"/>
         <v>9</v>
       </c>
+      <c r="AU318">
+        <v>6</v>
+      </c>
     </row>
-    <row r="319" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="11">
         <f t="shared" si="46"/>
         <v>140</v>
@@ -46264,8 +47154,11 @@
         <f t="shared" si="45"/>
         <v>8</v>
       </c>
+      <c r="AU319">
+        <v>6</v>
+      </c>
     </row>
-    <row r="320" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="11">
         <f t="shared" si="46"/>
         <v>141</v>
@@ -46405,8 +47298,11 @@
         <f t="shared" si="45"/>
         <v>7</v>
       </c>
+      <c r="AU320">
+        <v>8</v>
+      </c>
     </row>
-    <row r="321" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="11">
         <f t="shared" si="46"/>
         <v>141</v>
@@ -46546,8 +47442,11 @@
         <f t="shared" si="45"/>
         <v>7</v>
       </c>
+      <c r="AU321">
+        <v>8</v>
+      </c>
     </row>
-    <row r="322" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="11">
         <f t="shared" si="46"/>
         <v>142</v>
@@ -46669,8 +47568,11 @@
         <f t="shared" si="45"/>
         <v>5</v>
       </c>
+      <c r="AU322">
+        <v>7</v>
+      </c>
     </row>
-    <row r="323" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="11">
         <f t="shared" si="46"/>
         <v>142</v>
@@ -46792,8 +47694,11 @@
         <f t="shared" ref="AT323:AT386" si="53">SUM(AH323:AS323)</f>
         <v>9</v>
       </c>
+      <c r="AU323">
+        <v>7</v>
+      </c>
     </row>
-    <row r="324" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="11">
         <f t="shared" si="46"/>
         <v>143</v>
@@ -46918,7 +47823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="11">
         <f t="shared" si="46"/>
         <v>143</v>
@@ -47043,7 +47948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="11">
         <f t="shared" ref="A326:A389" si="54">IF(B326=B325,A325,A325+1)</f>
         <v>143</v>
@@ -47168,7 +48073,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="327" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="11">
         <f t="shared" si="54"/>
         <v>143</v>
@@ -47293,7 +48198,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="328" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="11">
         <f t="shared" si="54"/>
         <v>144</v>
@@ -47433,8 +48338,11 @@
         <f t="shared" si="53"/>
         <v>6</v>
       </c>
+      <c r="AU328">
+        <v>6</v>
+      </c>
     </row>
-    <row r="329" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="11">
         <f t="shared" si="54"/>
         <v>144</v>
@@ -47574,8 +48482,11 @@
         <f t="shared" si="53"/>
         <v>7</v>
       </c>
+      <c r="AU329">
+        <v>6</v>
+      </c>
     </row>
-    <row r="330" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="11">
         <f t="shared" si="54"/>
         <v>144</v>
@@ -47715,8 +48626,11 @@
         <f t="shared" si="53"/>
         <v>8</v>
       </c>
+      <c r="AU330">
+        <v>6</v>
+      </c>
     </row>
-    <row r="331" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="11">
         <f t="shared" si="54"/>
         <v>145</v>
@@ -47853,7 +48767,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="332" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="11">
         <f t="shared" si="54"/>
         <v>145</v>
@@ -47990,7 +48904,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="333" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="11">
         <f t="shared" si="54"/>
         <v>146</v>
@@ -48130,8 +49044,11 @@
         <f t="shared" si="53"/>
         <v>5</v>
       </c>
+      <c r="AU333">
+        <v>5</v>
+      </c>
     </row>
-    <row r="334" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="11">
         <f t="shared" si="54"/>
         <v>146</v>
@@ -48271,8 +49188,11 @@
         <f t="shared" si="53"/>
         <v>5</v>
       </c>
+      <c r="AU334">
+        <v>5</v>
+      </c>
     </row>
-    <row r="335" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="11">
         <f t="shared" si="54"/>
         <v>147</v>
@@ -48414,8 +49334,11 @@
         <f t="shared" si="53"/>
         <v>7</v>
       </c>
+      <c r="AU335">
+        <v>6</v>
+      </c>
     </row>
-    <row r="336" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="11">
         <f t="shared" si="54"/>
         <v>147</v>
@@ -48557,8 +49480,11 @@
         <f t="shared" si="53"/>
         <v>9</v>
       </c>
+      <c r="AU336">
+        <v>6</v>
+      </c>
     </row>
-    <row r="337" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="11">
         <f t="shared" si="54"/>
         <v>148</v>
@@ -48694,8 +49620,11 @@
         <f t="shared" si="53"/>
         <v>3</v>
       </c>
+      <c r="AU337">
+        <v>6</v>
+      </c>
     </row>
-    <row r="338" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="11">
         <f t="shared" si="54"/>
         <v>148</v>
@@ -48831,8 +49760,11 @@
         <f t="shared" si="53"/>
         <v>4</v>
       </c>
+      <c r="AU338">
+        <v>6</v>
+      </c>
     </row>
-    <row r="339" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="11">
         <f t="shared" si="54"/>
         <v>148</v>
@@ -48968,8 +49900,11 @@
         <f t="shared" si="53"/>
         <v>5</v>
       </c>
+      <c r="AU339">
+        <v>6</v>
+      </c>
     </row>
-    <row r="340" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="11">
         <f t="shared" si="54"/>
         <v>149</v>
@@ -49096,8 +50031,11 @@
         <f t="shared" si="53"/>
         <v>8</v>
       </c>
+      <c r="AU340">
+        <v>8</v>
+      </c>
     </row>
-    <row r="341" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="11">
         <f t="shared" si="54"/>
         <v>149</v>
@@ -49224,8 +50162,11 @@
         <f t="shared" si="53"/>
         <v>7</v>
       </c>
+      <c r="AU341">
+        <v>8</v>
+      </c>
     </row>
-    <row r="342" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="11">
         <f t="shared" si="54"/>
         <v>150</v>
@@ -49357,8 +50298,11 @@
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
+      <c r="AU342">
+        <v>5</v>
+      </c>
     </row>
-    <row r="343" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="11">
         <f t="shared" si="54"/>
         <v>150</v>
@@ -49494,8 +50438,11 @@
         <f t="shared" si="53"/>
         <v>8</v>
       </c>
+      <c r="AU343">
+        <v>5</v>
+      </c>
     </row>
-    <row r="344" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="11">
         <f t="shared" si="54"/>
         <v>151</v>
@@ -49631,8 +50578,11 @@
         <f t="shared" si="53"/>
         <v>7</v>
       </c>
+      <c r="AU344">
+        <v>6</v>
+      </c>
     </row>
-    <row r="345" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="11">
         <f t="shared" si="54"/>
         <v>151</v>
@@ -49768,8 +50718,11 @@
         <f t="shared" si="53"/>
         <v>6</v>
       </c>
+      <c r="AU345">
+        <v>6</v>
+      </c>
     </row>
-    <row r="346" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="11">
         <f t="shared" si="54"/>
         <v>152</v>
@@ -49899,8 +50852,11 @@
         <f t="shared" si="53"/>
         <v>4</v>
       </c>
+      <c r="AU346">
+        <v>7</v>
+      </c>
     </row>
-    <row r="347" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="11">
         <f t="shared" si="54"/>
         <v>152</v>
@@ -50030,8 +50986,11 @@
         <f t="shared" si="53"/>
         <v>4</v>
       </c>
+      <c r="AU347">
+        <v>7</v>
+      </c>
     </row>
-    <row r="348" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="11">
         <f t="shared" si="54"/>
         <v>153</v>
@@ -50165,8 +51124,11 @@
         <f t="shared" si="53"/>
         <v>5</v>
       </c>
+      <c r="AU348">
+        <v>8</v>
+      </c>
     </row>
-    <row r="349" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="11">
         <f t="shared" si="54"/>
         <v>153</v>
@@ -50300,8 +51262,11 @@
         <f t="shared" si="53"/>
         <v>9</v>
       </c>
+      <c r="AU349">
+        <v>8</v>
+      </c>
     </row>
-    <row r="350" spans="1:46" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:47" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="24">
         <f t="shared" si="54"/>
         <v>154</v>
@@ -50445,8 +51410,11 @@
         <f t="shared" si="53"/>
         <v>9</v>
       </c>
+      <c r="AU350">
+        <v>5</v>
+      </c>
     </row>
-    <row r="351" spans="1:46" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:47" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="24">
         <f t="shared" si="54"/>
         <v>154</v>
@@ -50584,8 +51552,11 @@
         <f t="shared" si="53"/>
         <v>10</v>
       </c>
+      <c r="AU351">
+        <v>5</v>
+      </c>
     </row>
-    <row r="352" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="11">
         <f t="shared" si="54"/>
         <v>155</v>
@@ -50721,8 +51692,11 @@
         <f t="shared" si="53"/>
         <v>6</v>
       </c>
+      <c r="AU352">
+        <v>4</v>
+      </c>
     </row>
-    <row r="353" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="11">
         <f t="shared" si="54"/>
         <v>155</v>
@@ -50858,8 +51832,11 @@
         <f t="shared" si="53"/>
         <v>7</v>
       </c>
+      <c r="AU353">
+        <v>4</v>
+      </c>
     </row>
-    <row r="354" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="11">
         <f t="shared" si="54"/>
         <v>156</v>
@@ -50992,7 +51969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="11">
         <f t="shared" si="54"/>
         <v>156</v>
@@ -51115,7 +52092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="356" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="11">
         <f t="shared" si="54"/>
         <v>157</v>
@@ -51247,8 +52224,11 @@
         <f t="shared" si="53"/>
         <v>5</v>
       </c>
+      <c r="AU356">
+        <v>6</v>
+      </c>
     </row>
-    <row r="357" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="11">
         <f t="shared" si="54"/>
         <v>157</v>
@@ -51380,8 +52360,11 @@
         <f t="shared" si="53"/>
         <v>8</v>
       </c>
+      <c r="AU357">
+        <v>6</v>
+      </c>
     </row>
-    <row r="358" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="11">
         <f t="shared" si="54"/>
         <v>158</v>
@@ -51517,8 +52500,11 @@
         <f t="shared" si="53"/>
         <v>7</v>
       </c>
+      <c r="AU358">
+        <v>5</v>
+      </c>
     </row>
-    <row r="359" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="11">
         <f t="shared" si="54"/>
         <v>158</v>
@@ -51645,8 +52631,11 @@
         <f t="shared" si="53"/>
         <v>6</v>
       </c>
+      <c r="AU359">
+        <v>5</v>
+      </c>
     </row>
-    <row r="360" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="11">
         <f t="shared" si="54"/>
         <v>158</v>
@@ -51782,8 +52771,11 @@
         <f t="shared" si="53"/>
         <v>8</v>
       </c>
+      <c r="AU360">
+        <v>5</v>
+      </c>
     </row>
-    <row r="361" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="11">
         <f t="shared" si="54"/>
         <v>159</v>
@@ -51916,7 +52908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="11">
         <f t="shared" si="54"/>
         <v>159</v>
@@ -52053,7 +53045,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="363" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="11">
         <f t="shared" si="54"/>
         <v>160</v>
@@ -52180,8 +53172,11 @@
         <f t="shared" si="53"/>
         <v>6</v>
       </c>
+      <c r="AU363">
+        <v>5</v>
+      </c>
     </row>
-    <row r="364" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="11">
         <f t="shared" si="54"/>
         <v>160</v>
@@ -52304,8 +53299,11 @@
         <f t="shared" si="53"/>
         <v>7</v>
       </c>
+      <c r="AU364">
+        <v>5</v>
+      </c>
     </row>
-    <row r="365" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="11">
         <f t="shared" si="54"/>
         <v>161</v>
@@ -52441,8 +53439,11 @@
         <f t="shared" si="53"/>
         <v>6</v>
       </c>
+      <c r="AU365">
+        <v>8</v>
+      </c>
     </row>
-    <row r="366" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="11">
         <f t="shared" si="54"/>
         <v>161</v>
@@ -52578,8 +53579,11 @@
         <f t="shared" si="53"/>
         <v>10</v>
       </c>
+      <c r="AU366">
+        <v>8</v>
+      </c>
     </row>
-    <row r="367" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="11">
         <f t="shared" si="54"/>
         <v>162</v>
@@ -52711,8 +53715,11 @@
         <f t="shared" si="53"/>
         <v>4</v>
       </c>
+      <c r="AU367">
+        <v>4</v>
+      </c>
     </row>
-    <row r="368" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="11">
         <f t="shared" si="54"/>
         <v>162</v>
@@ -52856,8 +53863,11 @@
         <f t="shared" si="53"/>
         <v>6</v>
       </c>
+      <c r="AU368">
+        <v>4</v>
+      </c>
     </row>
-    <row r="369" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="11">
         <f t="shared" si="54"/>
         <v>162</v>
@@ -53001,8 +54011,11 @@
         <f t="shared" si="53"/>
         <v>6</v>
       </c>
+      <c r="AU369">
+        <v>4</v>
+      </c>
     </row>
-    <row r="370" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="11">
         <f t="shared" si="54"/>
         <v>163</v>
@@ -53138,8 +54151,11 @@
         <f t="shared" si="53"/>
         <v>7</v>
       </c>
+      <c r="AU370">
+        <v>6</v>
+      </c>
     </row>
-    <row r="371" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="11">
         <f t="shared" si="54"/>
         <v>163</v>
@@ -53275,8 +54291,11 @@
         <f t="shared" si="53"/>
         <v>8</v>
       </c>
+      <c r="AU371">
+        <v>6</v>
+      </c>
     </row>
-    <row r="372" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="11">
         <f t="shared" si="54"/>
         <v>164</v>
@@ -53412,8 +54431,11 @@
         <f t="shared" si="53"/>
         <v>7</v>
       </c>
+      <c r="AU372">
+        <v>5</v>
+      </c>
     </row>
-    <row r="373" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="11">
         <f t="shared" si="54"/>
         <v>164</v>
@@ -53549,8 +54571,11 @@
         <f t="shared" si="53"/>
         <v>8</v>
       </c>
+      <c r="AU373">
+        <v>5</v>
+      </c>
     </row>
-    <row r="374" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="11">
         <f t="shared" si="54"/>
         <v>165</v>
@@ -53686,8 +54711,11 @@
         <f t="shared" si="53"/>
         <v>8</v>
       </c>
+      <c r="AU374">
+        <v>7</v>
+      </c>
     </row>
-    <row r="375" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="11">
         <f t="shared" si="54"/>
         <v>165</v>
@@ -53823,8 +54851,11 @@
         <f t="shared" si="53"/>
         <v>9</v>
       </c>
+      <c r="AU375">
+        <v>7</v>
+      </c>
     </row>
-    <row r="376" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="11">
         <f t="shared" si="54"/>
         <v>166</v>
@@ -53959,7 +54990,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="377" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="11">
         <f t="shared" si="54"/>
         <v>166</v>
@@ -54094,7 +55125,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="378" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="11">
         <f t="shared" si="54"/>
         <v>166</v>
@@ -54229,7 +55260,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="379" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="11">
         <f t="shared" si="54"/>
         <v>167</v>
@@ -54365,8 +55396,11 @@
         <f t="shared" si="53"/>
         <v>7</v>
       </c>
+      <c r="AU379">
+        <v>7</v>
+      </c>
     </row>
-    <row r="380" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="11">
         <f t="shared" si="54"/>
         <v>167</v>
@@ -54502,8 +55536,11 @@
         <f t="shared" si="53"/>
         <v>6</v>
       </c>
+      <c r="AU380">
+        <v>7</v>
+      </c>
     </row>
-    <row r="381" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="11">
         <f t="shared" si="54"/>
         <v>167</v>
@@ -54639,8 +55676,11 @@
         <f t="shared" si="53"/>
         <v>7</v>
       </c>
+      <c r="AU381">
+        <v>7</v>
+      </c>
     </row>
-    <row r="382" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="11">
         <f t="shared" si="54"/>
         <v>167</v>
@@ -54776,8 +55816,11 @@
         <f t="shared" si="53"/>
         <v>7</v>
       </c>
+      <c r="AU382">
+        <v>7</v>
+      </c>
     </row>
-    <row r="383" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="11">
         <f t="shared" si="54"/>
         <v>168</v>
@@ -54892,8 +55935,11 @@
         <f t="shared" si="53"/>
         <v>7</v>
       </c>
+      <c r="AU383">
+        <v>6</v>
+      </c>
     </row>
-    <row r="384" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="11">
         <f t="shared" si="54"/>
         <v>168</v>
@@ -55008,8 +56054,11 @@
         <f t="shared" si="53"/>
         <v>8</v>
       </c>
+      <c r="AU384">
+        <v>6</v>
+      </c>
     </row>
-    <row r="385" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="11">
         <f t="shared" si="54"/>
         <v>168</v>
@@ -55124,8 +56173,11 @@
         <f t="shared" si="53"/>
         <v>7</v>
       </c>
+      <c r="AU385">
+        <v>6</v>
+      </c>
     </row>
-    <row r="386" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="11">
         <f t="shared" si="54"/>
         <v>168</v>
@@ -55240,8 +56292,11 @@
         <f t="shared" si="53"/>
         <v>8</v>
       </c>
+      <c r="AU386">
+        <v>6</v>
+      </c>
     </row>
-    <row r="387" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="11">
         <f t="shared" si="54"/>
         <v>169</v>
@@ -55377,8 +56432,11 @@
         <f t="shared" ref="AT387:AT450" si="61">SUM(AH387:AS387)</f>
         <v>3</v>
       </c>
+      <c r="AU387">
+        <v>7</v>
+      </c>
     </row>
-    <row r="388" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="11">
         <f t="shared" si="54"/>
         <v>169</v>
@@ -55514,8 +56572,11 @@
         <f t="shared" si="61"/>
         <v>6</v>
       </c>
+      <c r="AU388">
+        <v>7</v>
+      </c>
     </row>
-    <row r="389" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="11">
         <f t="shared" si="54"/>
         <v>170</v>
@@ -55650,8 +56711,11 @@
         <f t="shared" si="61"/>
         <v>7</v>
       </c>
+      <c r="AU389">
+        <v>7</v>
+      </c>
     </row>
-    <row r="390" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="11">
         <f t="shared" ref="A390:A453" si="62">IF(B390=B389,A389,A389+1)</f>
         <v>170</v>
@@ -55778,8 +56842,11 @@
         <f t="shared" si="61"/>
         <v>6</v>
       </c>
+      <c r="AU390">
+        <v>7</v>
+      </c>
     </row>
-    <row r="391" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="11">
         <f t="shared" si="62"/>
         <v>171</v>
@@ -55911,8 +56978,11 @@
         <f t="shared" si="61"/>
         <v>0</v>
       </c>
+      <c r="AU391">
+        <v>5</v>
+      </c>
     </row>
-    <row r="392" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="11">
         <f t="shared" si="62"/>
         <v>171</v>
@@ -56048,8 +57118,11 @@
         <f t="shared" si="61"/>
         <v>6</v>
       </c>
+      <c r="AU392">
+        <v>5</v>
+      </c>
     </row>
-    <row r="393" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="11">
         <f t="shared" si="62"/>
         <v>172</v>
@@ -56186,7 +57259,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="394" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="11">
         <f t="shared" si="62"/>
         <v>172</v>
@@ -56323,7 +57396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="395" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="11">
         <f t="shared" si="62"/>
         <v>173</v>
@@ -56451,7 +57524,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="396" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="11">
         <f t="shared" si="62"/>
         <v>173</v>
@@ -56579,7 +57652,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="397" spans="1:46" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:47" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="24">
         <f t="shared" si="62"/>
         <v>174</v>
@@ -56705,8 +57778,11 @@
         <f t="shared" si="61"/>
         <v>10</v>
       </c>
+      <c r="AU397">
+        <v>7</v>
+      </c>
     </row>
-    <row r="398" spans="1:46" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:47" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="24">
         <f t="shared" si="62"/>
         <v>174</v>
@@ -56832,8 +57908,11 @@
         <f t="shared" si="61"/>
         <v>10</v>
       </c>
+      <c r="AU398">
+        <v>7</v>
+      </c>
     </row>
-    <row r="399" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="11">
         <f t="shared" si="62"/>
         <v>175</v>
@@ -56969,8 +58048,11 @@
         <f t="shared" si="61"/>
         <v>7</v>
       </c>
+      <c r="AU399">
+        <v>8</v>
+      </c>
     </row>
-    <row r="400" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="11">
         <f t="shared" si="62"/>
         <v>175</v>
@@ -57106,8 +58188,11 @@
         <f t="shared" si="61"/>
         <v>6</v>
       </c>
+      <c r="AU400">
+        <v>8</v>
+      </c>
     </row>
-    <row r="401" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="11">
         <f t="shared" si="62"/>
         <v>176</v>
@@ -57250,7 +58335,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="402" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="11">
         <f t="shared" si="62"/>
         <v>176</v>
@@ -57393,7 +58478,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="403" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="11">
         <f t="shared" si="62"/>
         <v>177</v>
@@ -57513,8 +58598,11 @@
         <f t="shared" si="61"/>
         <v>6</v>
       </c>
+      <c r="AU403">
+        <v>7</v>
+      </c>
     </row>
-    <row r="404" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="11">
         <f t="shared" si="62"/>
         <v>177</v>
@@ -57650,8 +58738,11 @@
         <f t="shared" si="61"/>
         <v>7</v>
       </c>
+      <c r="AU404">
+        <v>7</v>
+      </c>
     </row>
-    <row r="405" spans="1:46" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:47" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="24">
         <f t="shared" si="62"/>
         <v>178</v>
@@ -57789,8 +58880,11 @@
         <f t="shared" si="61"/>
         <v>8</v>
       </c>
+      <c r="AU405">
+        <v>6</v>
+      </c>
     </row>
-    <row r="406" spans="1:46" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:47" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="24">
         <f t="shared" si="62"/>
         <v>178</v>
@@ -57928,8 +59022,11 @@
         <f t="shared" si="61"/>
         <v>8</v>
       </c>
+      <c r="AU406">
+        <v>6</v>
+      </c>
     </row>
-    <row r="407" spans="1:46" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:47" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="24">
         <f t="shared" si="62"/>
         <v>178</v>
@@ -58067,8 +59164,11 @@
         <f t="shared" si="61"/>
         <v>9</v>
       </c>
+      <c r="AU407">
+        <v>6</v>
+      </c>
     </row>
-    <row r="408" spans="1:46" s="95" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:47" s="95" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="94">
         <f t="shared" si="62"/>
         <v>179</v>
@@ -58204,8 +59304,11 @@
         <f t="shared" si="61"/>
         <v>9</v>
       </c>
+      <c r="AU408">
+        <v>7</v>
+      </c>
     </row>
-    <row r="409" spans="1:46" s="95" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:47" s="95" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="94">
         <f t="shared" si="62"/>
         <v>179</v>
@@ -58337,8 +59440,11 @@
         <f t="shared" si="61"/>
         <v>8</v>
       </c>
+      <c r="AU409">
+        <v>7</v>
+      </c>
     </row>
-    <row r="410" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="11">
         <f t="shared" si="62"/>
         <v>180</v>
@@ -58478,8 +59584,11 @@
         <f t="shared" si="61"/>
         <v>8</v>
       </c>
+      <c r="AU410">
+        <v>8</v>
+      </c>
     </row>
-    <row r="411" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="11">
         <f t="shared" si="62"/>
         <v>180</v>
@@ -58619,8 +59728,11 @@
         <f t="shared" si="61"/>
         <v>9</v>
       </c>
+      <c r="AU411">
+        <v>8</v>
+      </c>
     </row>
-    <row r="412" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="11">
         <f t="shared" si="62"/>
         <v>181</v>
@@ -58735,8 +59847,11 @@
         <f t="shared" si="61"/>
         <v>7</v>
       </c>
+      <c r="AU412">
+        <v>7</v>
+      </c>
     </row>
-    <row r="413" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="11">
         <f t="shared" si="62"/>
         <v>181</v>
@@ -58851,8 +59966,11 @@
         <f t="shared" si="61"/>
         <v>7</v>
       </c>
+      <c r="AU413">
+        <v>7</v>
+      </c>
     </row>
-    <row r="414" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="11">
         <f t="shared" si="62"/>
         <v>182</v>
@@ -58992,8 +60110,11 @@
         <f t="shared" si="61"/>
         <v>4</v>
       </c>
+      <c r="AU414">
+        <v>6</v>
+      </c>
     </row>
-    <row r="415" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="11">
         <f t="shared" si="62"/>
         <v>182</v>
@@ -59131,8 +60252,11 @@
         <f t="shared" si="61"/>
         <v>5</v>
       </c>
+      <c r="AU415">
+        <v>6</v>
+      </c>
     </row>
-    <row r="416" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="11">
         <f t="shared" si="62"/>
         <v>182</v>
@@ -59270,8 +60394,11 @@
         <f t="shared" si="61"/>
         <v>6</v>
       </c>
+      <c r="AU416">
+        <v>6</v>
+      </c>
     </row>
-    <row r="417" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="11">
         <f t="shared" si="62"/>
         <v>183</v>
@@ -59401,8 +60528,11 @@
         <f t="shared" si="61"/>
         <v>5</v>
       </c>
+      <c r="AU417">
+        <v>6</v>
+      </c>
     </row>
-    <row r="418" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="11">
         <f t="shared" si="62"/>
         <v>183</v>
@@ -59532,8 +60662,11 @@
         <f t="shared" si="61"/>
         <v>6</v>
       </c>
+      <c r="AU418">
+        <v>6</v>
+      </c>
     </row>
-    <row r="419" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="11">
         <f t="shared" si="62"/>
         <v>184</v>
@@ -59670,7 +60803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="420" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="11">
         <f t="shared" si="62"/>
         <v>184</v>
@@ -59807,7 +60940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="421" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="11">
         <f t="shared" si="62"/>
         <v>185</v>
@@ -59947,8 +61080,11 @@
         <f t="shared" si="61"/>
         <v>9</v>
       </c>
+      <c r="AU421">
+        <v>5</v>
+      </c>
     </row>
-    <row r="422" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="11">
         <f t="shared" si="62"/>
         <v>185</v>
@@ -60088,8 +61224,11 @@
         <f t="shared" si="61"/>
         <v>9</v>
       </c>
+      <c r="AU422">
+        <v>5</v>
+      </c>
     </row>
-    <row r="423" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="11">
         <f t="shared" si="62"/>
         <v>186</v>
@@ -60222,8 +61361,11 @@
         <f t="shared" si="61"/>
         <v>7</v>
       </c>
+      <c r="AU423">
+        <v>6</v>
+      </c>
     </row>
-    <row r="424" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="11">
         <f t="shared" si="62"/>
         <v>186</v>
@@ -60356,8 +61498,11 @@
         <f t="shared" si="61"/>
         <v>5</v>
       </c>
+      <c r="AU424">
+        <v>6</v>
+      </c>
     </row>
-    <row r="425" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="11">
         <f t="shared" si="62"/>
         <v>187</v>
@@ -60488,8 +61633,11 @@
         <f t="shared" si="61"/>
         <v>9</v>
       </c>
+      <c r="AU425">
+        <v>6</v>
+      </c>
     </row>
-    <row r="426" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="11">
         <f t="shared" si="62"/>
         <v>187</v>
@@ -60608,8 +61756,11 @@
         <f t="shared" si="61"/>
         <v>8</v>
       </c>
+      <c r="AU426">
+        <v>6</v>
+      </c>
     </row>
-    <row r="427" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="11">
         <f t="shared" si="62"/>
         <v>188</v>
@@ -60745,8 +61896,11 @@
         <f t="shared" si="61"/>
         <v>7</v>
       </c>
+      <c r="AU427">
+        <v>5</v>
+      </c>
     </row>
-    <row r="428" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="11">
         <f t="shared" si="62"/>
         <v>188</v>
@@ -60882,8 +62036,11 @@
         <f t="shared" si="61"/>
         <v>8</v>
       </c>
+      <c r="AU428">
+        <v>5</v>
+      </c>
     </row>
-    <row r="429" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="11">
         <f t="shared" si="62"/>
         <v>189</v>
@@ -60998,8 +62155,11 @@
         <f t="shared" si="61"/>
         <v>0</v>
       </c>
+      <c r="AU429">
+        <v>7</v>
+      </c>
     </row>
-    <row r="430" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="11">
         <f t="shared" si="62"/>
         <v>189</v>
@@ -61118,8 +62278,11 @@
         <f t="shared" si="61"/>
         <v>8</v>
       </c>
+      <c r="AU430">
+        <v>7</v>
+      </c>
     </row>
-    <row r="431" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="11">
         <f t="shared" si="62"/>
         <v>190</v>
@@ -61261,8 +62424,11 @@
         <f t="shared" si="61"/>
         <v>9</v>
       </c>
+      <c r="AU431">
+        <v>4</v>
+      </c>
     </row>
-    <row r="432" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="11">
         <f t="shared" si="62"/>
         <v>190</v>
@@ -61404,8 +62570,11 @@
         <f t="shared" si="61"/>
         <v>10</v>
       </c>
+      <c r="AU432">
+        <v>4</v>
+      </c>
     </row>
-    <row r="433" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="11">
         <f t="shared" si="62"/>
         <v>190</v>
@@ -61545,8 +62714,11 @@
         <f t="shared" si="61"/>
         <v>8</v>
       </c>
+      <c r="AU433">
+        <v>4</v>
+      </c>
     </row>
-    <row r="434" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="11">
         <f t="shared" si="62"/>
         <v>191</v>
@@ -61682,8 +62854,11 @@
         <f t="shared" si="61"/>
         <v>7</v>
       </c>
+      <c r="AU434">
+        <v>6</v>
+      </c>
     </row>
-    <row r="435" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="11">
         <f t="shared" si="62"/>
         <v>191</v>
@@ -61819,8 +62994,11 @@
         <f t="shared" si="61"/>
         <v>7</v>
       </c>
+      <c r="AU435">
+        <v>6</v>
+      </c>
     </row>
-    <row r="436" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="11">
         <f t="shared" si="62"/>
         <v>191</v>
@@ -61956,8 +63134,11 @@
         <f t="shared" si="61"/>
         <v>7</v>
       </c>
+      <c r="AU436">
+        <v>6</v>
+      </c>
     </row>
-    <row r="437" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="11">
         <f t="shared" si="62"/>
         <v>191</v>
@@ -62093,8 +63274,11 @@
         <f t="shared" si="61"/>
         <v>7</v>
       </c>
+      <c r="AU437">
+        <v>6</v>
+      </c>
     </row>
-    <row r="438" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="11">
         <f t="shared" si="62"/>
         <v>192</v>
@@ -62236,8 +63420,11 @@
         <f t="shared" si="61"/>
         <v>5</v>
       </c>
+      <c r="AU438">
+        <v>4</v>
+      </c>
     </row>
-    <row r="439" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="11">
         <f t="shared" si="62"/>
         <v>192</v>
@@ -62369,8 +63556,11 @@
         <f t="shared" si="61"/>
         <v>4</v>
       </c>
+      <c r="AU439">
+        <v>4</v>
+      </c>
     </row>
-    <row r="440" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="11">
         <f t="shared" si="62"/>
         <v>193</v>
@@ -62512,8 +63702,11 @@
         <f t="shared" si="61"/>
         <v>8</v>
       </c>
+      <c r="AU440">
+        <v>7</v>
+      </c>
     </row>
-    <row r="441" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="11">
         <f t="shared" si="62"/>
         <v>193</v>
@@ -62655,8 +63848,11 @@
         <f t="shared" si="61"/>
         <v>8</v>
       </c>
+      <c r="AU441">
+        <v>7</v>
+      </c>
     </row>
-    <row r="442" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="11">
         <f t="shared" si="62"/>
         <v>194</v>
@@ -62792,8 +63988,11 @@
         <f t="shared" si="61"/>
         <v>5</v>
       </c>
+      <c r="AU442">
+        <v>6</v>
+      </c>
     </row>
-    <row r="443" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="11">
         <f t="shared" si="62"/>
         <v>194</v>
@@ -62929,8 +64128,11 @@
         <f t="shared" si="61"/>
         <v>7</v>
       </c>
+      <c r="AU443">
+        <v>6</v>
+      </c>
     </row>
-    <row r="444" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="11">
         <f t="shared" si="62"/>
         <v>195</v>
@@ -63065,7 +64267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="445" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="11">
         <f t="shared" si="62"/>
         <v>195</v>
@@ -63200,7 +64402,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="446" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="11">
         <f t="shared" si="62"/>
         <v>196</v>
@@ -63321,7 +64523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="447" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="11">
         <f t="shared" si="62"/>
         <v>196</v>
@@ -63446,7 +64648,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="448" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="11">
         <f t="shared" si="62"/>
         <v>197</v>
@@ -63588,8 +64790,11 @@
         <f t="shared" si="61"/>
         <v>5</v>
       </c>
+      <c r="AU448">
+        <v>6</v>
+      </c>
     </row>
-    <row r="449" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="11">
         <f t="shared" si="62"/>
         <v>197</v>
@@ -63731,8 +64936,11 @@
         <f t="shared" si="61"/>
         <v>9</v>
       </c>
+      <c r="AU449">
+        <v>6</v>
+      </c>
     </row>
-    <row r="450" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="11">
         <f t="shared" si="62"/>
         <v>197</v>
@@ -63874,8 +65082,11 @@
         <f t="shared" si="61"/>
         <v>7</v>
       </c>
+      <c r="AU450">
+        <v>6</v>
+      </c>
     </row>
-    <row r="451" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="11">
         <f t="shared" si="62"/>
         <v>198</v>
@@ -64005,8 +65216,11 @@
         <f t="shared" ref="AT451:AT490" si="68">SUM(AH451:AS451)</f>
         <v>5</v>
       </c>
+      <c r="AU451">
+        <v>6</v>
+      </c>
     </row>
-    <row r="452" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="11">
         <f t="shared" si="62"/>
         <v>198</v>
@@ -64142,8 +65356,11 @@
         <f t="shared" si="68"/>
         <v>6</v>
       </c>
+      <c r="AU452">
+        <v>6</v>
+      </c>
     </row>
-    <row r="453" spans="1:46" s="95" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:47" s="95" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="94">
         <f t="shared" si="62"/>
         <v>199</v>
@@ -64285,8 +65502,11 @@
         <f t="shared" si="68"/>
         <v>9</v>
       </c>
+      <c r="AU453">
+        <v>6</v>
+      </c>
     </row>
-    <row r="454" spans="1:46" s="95" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:47" s="95" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="94">
         <f t="shared" ref="A454:A490" si="70">IF(B454=B453,A453,A453+1)</f>
         <v>199</v>
@@ -64426,8 +65646,11 @@
         <f t="shared" si="68"/>
         <v>7</v>
       </c>
+      <c r="AU454">
+        <v>6</v>
+      </c>
     </row>
-    <row r="455" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="11">
         <f t="shared" si="70"/>
         <v>200</v>
@@ -64567,8 +65790,11 @@
         <f t="shared" si="68"/>
         <v>7</v>
       </c>
+      <c r="AU455">
+        <v>6</v>
+      </c>
     </row>
-    <row r="456" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="11">
         <f t="shared" si="70"/>
         <v>200</v>
@@ -64708,8 +65934,11 @@
         <f t="shared" si="68"/>
         <v>8</v>
       </c>
+      <c r="AU456">
+        <v>6</v>
+      </c>
     </row>
-    <row r="457" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="11">
         <f t="shared" si="70"/>
         <v>201</v>
@@ -64849,8 +66078,11 @@
         <f t="shared" si="68"/>
         <v>7</v>
       </c>
+      <c r="AU457">
+        <v>6</v>
+      </c>
     </row>
-    <row r="458" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="11">
         <f t="shared" si="70"/>
         <v>201</v>
@@ -64990,8 +66222,11 @@
         <f t="shared" si="68"/>
         <v>10</v>
       </c>
+      <c r="AU458">
+        <v>6</v>
+      </c>
     </row>
-    <row r="459" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="11">
         <f t="shared" si="70"/>
         <v>202</v>
@@ -65131,8 +66366,11 @@
         <f t="shared" si="68"/>
         <v>6</v>
       </c>
+      <c r="AU459">
+        <v>6</v>
+      </c>
     </row>
-    <row r="460" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="11">
         <f t="shared" si="70"/>
         <v>202</v>
@@ -65272,8 +66510,11 @@
         <f t="shared" si="68"/>
         <v>6</v>
       </c>
+      <c r="AU460">
+        <v>6</v>
+      </c>
     </row>
-    <row r="461" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="11">
         <f t="shared" si="70"/>
         <v>202</v>
@@ -65413,8 +66654,11 @@
         <f t="shared" si="68"/>
         <v>10</v>
       </c>
+      <c r="AU461">
+        <v>6</v>
+      </c>
     </row>
-    <row r="462" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="11">
         <f t="shared" si="70"/>
         <v>203</v>
@@ -65550,8 +66794,11 @@
         <f t="shared" si="68"/>
         <v>8</v>
       </c>
+      <c r="AU462">
+        <v>6</v>
+      </c>
     </row>
-    <row r="463" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="11">
         <f t="shared" si="70"/>
         <v>203</v>
@@ -65693,8 +66940,11 @@
         <f t="shared" si="68"/>
         <v>8</v>
       </c>
+      <c r="AU463">
+        <v>6</v>
+      </c>
     </row>
-    <row r="464" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="11">
         <f t="shared" si="70"/>
         <v>203</v>
@@ -65836,8 +67086,11 @@
         <f t="shared" si="68"/>
         <v>8</v>
       </c>
+      <c r="AU464">
+        <v>6</v>
+      </c>
     </row>
-    <row r="465" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="11">
         <f t="shared" si="70"/>
         <v>204</v>
@@ -65973,8 +67226,11 @@
         <f t="shared" si="68"/>
         <v>6</v>
       </c>
+      <c r="AU465">
+        <v>6</v>
+      </c>
     </row>
-    <row r="466" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="11">
         <f t="shared" si="70"/>
         <v>204</v>
@@ -66110,8 +67366,11 @@
         <f t="shared" si="68"/>
         <v>8</v>
       </c>
+      <c r="AU466">
+        <v>6</v>
+      </c>
     </row>
-    <row r="467" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="11">
         <f t="shared" si="70"/>
         <v>205</v>
@@ -66247,8 +67506,11 @@
         <f t="shared" si="68"/>
         <v>1</v>
       </c>
+      <c r="AU467">
+        <v>7</v>
+      </c>
     </row>
-    <row r="468" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="11">
         <f t="shared" si="70"/>
         <v>205</v>
@@ -66384,8 +67646,11 @@
         <f t="shared" si="68"/>
         <v>11</v>
       </c>
+      <c r="AU468">
+        <v>7</v>
+      </c>
     </row>
-    <row r="469" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="11">
         <f t="shared" si="70"/>
         <v>206</v>
@@ -66521,8 +67786,11 @@
         <f t="shared" si="68"/>
         <v>7</v>
       </c>
+      <c r="AU469">
+        <v>6</v>
+      </c>
     </row>
-    <row r="470" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="11">
         <f t="shared" si="70"/>
         <v>206</v>
@@ -66658,8 +67926,11 @@
         <f t="shared" si="68"/>
         <v>8</v>
       </c>
+      <c r="AU470">
+        <v>6</v>
+      </c>
     </row>
-    <row r="471" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="11">
         <f t="shared" si="70"/>
         <v>207</v>
@@ -66795,8 +68066,11 @@
         <f t="shared" si="68"/>
         <v>5</v>
       </c>
+      <c r="AU471">
+        <v>7</v>
+      </c>
     </row>
-    <row r="472" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="11">
         <f t="shared" si="70"/>
         <v>207</v>
@@ -66932,8 +68206,11 @@
         <f t="shared" si="68"/>
         <v>5</v>
       </c>
+      <c r="AU472">
+        <v>7</v>
+      </c>
     </row>
-    <row r="473" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="11">
         <f t="shared" si="70"/>
         <v>207</v>
@@ -67069,8 +68346,11 @@
         <f t="shared" si="68"/>
         <v>7</v>
       </c>
+      <c r="AU473">
+        <v>7</v>
+      </c>
     </row>
-    <row r="474" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="11">
         <f t="shared" si="70"/>
         <v>207</v>
@@ -67206,8 +68486,11 @@
         <f t="shared" si="68"/>
         <v>7</v>
       </c>
+      <c r="AU474">
+        <v>7</v>
+      </c>
     </row>
-    <row r="475" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="11">
         <f t="shared" si="70"/>
         <v>208</v>
@@ -67347,8 +68630,11 @@
         <f t="shared" si="68"/>
         <v>4</v>
       </c>
+      <c r="AU475">
+        <v>7</v>
+      </c>
     </row>
-    <row r="476" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="11">
         <f t="shared" si="70"/>
         <v>208</v>
@@ -67488,8 +68774,11 @@
         <f t="shared" si="68"/>
         <v>7</v>
       </c>
+      <c r="AU476">
+        <v>7</v>
+      </c>
     </row>
-    <row r="477" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="11">
         <f t="shared" si="70"/>
         <v>209</v>
@@ -67624,8 +68913,11 @@
         <f t="shared" si="68"/>
         <v>5</v>
       </c>
+      <c r="AU477">
+        <v>6</v>
+      </c>
     </row>
-    <row r="478" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="11">
         <f t="shared" si="70"/>
         <v>209</v>
@@ -67760,8 +69052,11 @@
         <f t="shared" si="68"/>
         <v>7</v>
       </c>
+      <c r="AU478">
+        <v>6</v>
+      </c>
     </row>
-    <row r="479" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="11">
         <f t="shared" si="70"/>
         <v>210</v>
@@ -67894,8 +69189,11 @@
         <f t="shared" si="68"/>
         <v>5</v>
       </c>
+      <c r="AU479">
+        <v>7</v>
+      </c>
     </row>
-    <row r="480" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="11">
         <f t="shared" si="70"/>
         <v>210</v>
@@ -68030,8 +69328,11 @@
         <f t="shared" si="68"/>
         <v>8</v>
       </c>
+      <c r="AU480">
+        <v>7</v>
+      </c>
     </row>
-    <row r="481" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="11">
         <f t="shared" si="70"/>
         <v>211</v>
@@ -68156,8 +69457,11 @@
         <f t="shared" si="68"/>
         <v>9</v>
       </c>
+      <c r="AU481">
+        <v>7</v>
+      </c>
     </row>
-    <row r="482" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="11">
         <f t="shared" si="70"/>
         <v>211</v>
@@ -68286,8 +69590,11 @@
         <f t="shared" si="68"/>
         <v>9</v>
       </c>
+      <c r="AU482">
+        <v>7</v>
+      </c>
     </row>
-    <row r="483" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="11">
         <f t="shared" si="70"/>
         <v>212</v>
@@ -68413,8 +69720,11 @@
         <f t="shared" si="68"/>
         <v>4</v>
       </c>
+      <c r="AU483">
+        <v>6</v>
+      </c>
     </row>
-    <row r="484" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="11">
         <f t="shared" si="70"/>
         <v>212</v>
@@ -68542,8 +69852,11 @@
         <f t="shared" si="68"/>
         <v>6</v>
       </c>
+      <c r="AU484">
+        <v>6</v>
+      </c>
     </row>
-    <row r="485" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="11">
         <f t="shared" si="70"/>
         <v>213</v>
@@ -68679,8 +69992,11 @@
         <f t="shared" si="68"/>
         <v>4</v>
       </c>
+      <c r="AU485">
+        <v>7</v>
+      </c>
     </row>
-    <row r="486" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="11">
         <f t="shared" si="70"/>
         <v>213</v>
@@ -68820,8 +70136,11 @@
         <f t="shared" si="68"/>
         <v>8</v>
       </c>
+      <c r="AU486">
+        <v>7</v>
+      </c>
     </row>
-    <row r="487" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="11">
         <f t="shared" si="70"/>
         <v>214</v>
@@ -68953,8 +70272,11 @@
         <f t="shared" si="68"/>
         <v>0</v>
       </c>
+      <c r="AU487">
+        <v>5</v>
+      </c>
     </row>
-    <row r="488" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="11">
         <f t="shared" si="70"/>
         <v>214</v>
@@ -69090,8 +70412,11 @@
         <f t="shared" si="68"/>
         <v>10</v>
       </c>
+      <c r="AU488">
+        <v>5</v>
+      </c>
     </row>
-    <row r="489" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="11">
         <f t="shared" si="70"/>
         <v>215</v>
@@ -69215,8 +70540,11 @@
         <f t="shared" si="68"/>
         <v>7</v>
       </c>
+      <c r="AU489">
+        <v>6</v>
+      </c>
     </row>
-    <row r="490" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="11">
         <f t="shared" si="70"/>
         <v>215</v>
@@ -69341,6 +70669,9 @@
       <c r="AT490" s="31">
         <f t="shared" si="68"/>
         <v>8</v>
+      </c>
+      <c r="AU490">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
